--- a/report.xlsx
+++ b/report.xlsx
@@ -7,26 +7,26 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="1st_https___ireland.apollo.olxc" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="2nd_https___ireland.apollo.olxc" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="3rd_https___ireland.apollo.olxc" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="4th_https___ireland.apollo.olxc" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="5th_https___ireland.apollo.olxc" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="6th_https___ireland.apollo.olxc" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="7th_https___ireland.apollo.olxc" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="8th_https___ireland.apollo.olxc" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="9th_https___ireland.apollo.olxc" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="10th_https___ireland.apollo.olx" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="11st_https___ireland.apollo.olx" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="12nd_https___ireland.apollo.olx" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="13rd_https___ireland.apollo.olx" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="14th_https___ireland.apollo.olx" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="15th_https___ireland.apollo.olx" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="16th_https___ireland.apollo.olx" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="17th_https___ireland.apollo.olx" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="18th_https___ireland.apollo.olx" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="19th_https___ireland.apollo.olx" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="20th_https___ireland.apollo.olx" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="2" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="5" sheetId="5" state="hidden" r:id="rId5"/>
+    <sheet name="6" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="7" sheetId="7" state="hidden" r:id="rId7"/>
+    <sheet name="8" sheetId="8" state="hidden" r:id="rId8"/>
+    <sheet name="9" sheetId="9" state="hidden" r:id="rId9"/>
+    <sheet name="10" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="11" sheetId="11" state="hidden" r:id="rId11"/>
+    <sheet name="12" sheetId="12" state="hidden" r:id="rId12"/>
+    <sheet name="13" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="14" sheetId="14" state="hidden" r:id="rId14"/>
+    <sheet name="15" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="16" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="17" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="18" sheetId="18" state="hidden" r:id="rId18"/>
+    <sheet name="19" sheetId="19" state="hidden" r:id="rId19"/>
+    <sheet name="20" sheetId="20" state="visible" r:id="rId20"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -152,7 +152,7 @@
     <from>
       <col>0</col>
       <colOff>0</colOff>
-      <row>0</row>
+      <row>1</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="3810000" cy="2533650"/>
@@ -182,7 +182,7 @@
     <from>
       <col>0</col>
       <colOff>0</colOff>
-      <row>0</row>
+      <row>1</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="3810000" cy="2857500"/>
@@ -212,7 +212,7 @@
     <from>
       <col>0</col>
       <colOff>0</colOff>
-      <row>0</row>
+      <row>1</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="3810000" cy="2533650"/>
@@ -242,7 +242,7 @@
     <from>
       <col>0</col>
       <colOff>0</colOff>
-      <row>0</row>
+      <row>1</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="3810000" cy="2857500"/>
@@ -272,7 +272,7 @@
     <from>
       <col>0</col>
       <colOff>0</colOff>
-      <row>0</row>
+      <row>1</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="3810000" cy="2143125"/>
@@ -302,7 +302,7 @@
     <from>
       <col>0</col>
       <colOff>0</colOff>
-      <row>0</row>
+      <row>1</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="3810000" cy="2857500"/>
@@ -332,7 +332,7 @@
     <from>
       <col>0</col>
       <colOff>0</colOff>
-      <row>0</row>
+      <row>1</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="3810000" cy="2857500"/>
@@ -362,7 +362,7 @@
     <from>
       <col>0</col>
       <colOff>0</colOff>
-      <row>0</row>
+      <row>1</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="3810000" cy="2533650"/>
@@ -392,7 +392,7 @@
     <from>
       <col>0</col>
       <colOff>0</colOff>
-      <row>0</row>
+      <row>1</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="3810000" cy="2857500"/>
@@ -422,7 +422,7 @@
     <from>
       <col>0</col>
       <colOff>0</colOff>
-      <row>0</row>
+      <row>1</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2257425" cy="2857500"/>
@@ -452,7 +452,7 @@
     <from>
       <col>0</col>
       <colOff>0</colOff>
-      <row>0</row>
+      <row>1</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="3810000" cy="2143125"/>
@@ -482,7 +482,7 @@
     <from>
       <col>0</col>
       <colOff>0</colOff>
-      <row>0</row>
+      <row>1</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="3810000" cy="2533650"/>
@@ -512,7 +512,7 @@
     <from>
       <col>0</col>
       <colOff>0</colOff>
-      <row>0</row>
+      <row>1</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="3810000" cy="2857500"/>
@@ -542,7 +542,7 @@
     <from>
       <col>0</col>
       <colOff>0</colOff>
-      <row>0</row>
+      <row>1</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="3800475" cy="2857500"/>
@@ -572,7 +572,7 @@
     <from>
       <col>0</col>
       <colOff>0</colOff>
-      <row>0</row>
+      <row>1</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="3810000" cy="2857500"/>
@@ -602,7 +602,7 @@
     <from>
       <col>0</col>
       <colOff>0</colOff>
-      <row>0</row>
+      <row>1</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="3810000" cy="2857500"/>
@@ -632,7 +632,7 @@
     <from>
       <col>0</col>
       <colOff>0</colOff>
-      <row>0</row>
+      <row>1</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="3810000" cy="2857500"/>
@@ -662,7 +662,7 @@
     <from>
       <col>0</col>
       <colOff>0</colOff>
-      <row>0</row>
+      <row>1</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="3810000" cy="2857500"/>
@@ -692,7 +692,7 @@
     <from>
       <col>0</col>
       <colOff>0</colOff>
-      <row>0</row>
+      <row>1</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="3810000" cy="2857500"/>
@@ -722,7 +722,7 @@
     <from>
       <col>0</col>
       <colOff>0</colOff>
-      <row>0</row>
+      <row>1</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="3810000" cy="2857500"/>
@@ -1032,10 +1032,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
+    <tabColor rgb="0000FF00"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1043,15 +1044,16 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="6" customWidth="1" min="1" max="1"/>
-    <col width="14.4" customWidth="1" min="2" max="2"/>
-    <col width="177.6" customWidth="1" min="3" max="3"/>
-    <col width="18" customWidth="1" min="4" max="4"/>
-    <col width="135.6" customWidth="1" min="5" max="5"/>
-    <col width="81.59999999999999" customWidth="1" min="6" max="6"/>
-    <col width="13.2" customWidth="1" min="7" max="7"/>
-    <col width="26.4" customWidth="1" min="8" max="8"/>
-    <col width="10.8" customWidth="1" min="9" max="9"/>
+    <col width="57.14285714285715" customWidth="1" min="1" max="1"/>
+    <col width="10.8" customWidth="1" min="2" max="2"/>
+    <col width="14.4" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="18" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="81.59999999999999" customWidth="1" min="7" max="7"/>
+    <col width="13.2" customWidth="1" min="8" max="8"/>
+    <col width="26.4" customWidth="1" min="9" max="9"/>
+    <col width="10.8" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1062,40 +1064,45 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>price</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>thumbnail</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>description</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>location</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>mileage</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>price</t>
         </is>
@@ -1103,40 +1110,45 @@
     </row>
     <row r="2">
       <c r="A2" t="inlineStr"/>
-      <c r="B2" s="1" t="n">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>218 000</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="n">
         <v>45467</v>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6ImRjdnoxMnZsa2F5ZzMtT1RPTU9UT1BMIn0.sIg_SNvNihFgVFEvN28pWn0ZK3qFB_zRiZDBmE-xBFM/image;s=320x240</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Ford Explorer</t>
-        </is>
-      </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-ford-explorer-st-pakiet-track-pack-2-kpl-opon-ID6Gxeuq.html</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>2 998 cm3 • 363 KM • Ford Explorer ST pakiet Track Pack 2 kpl opon</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>45 000 km</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>Kraków (Małopolskie)</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>218 000</t>
         </is>
@@ -1144,40 +1156,45 @@
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
-      <c r="B3" s="1" t="n">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>218 000</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="n">
         <v>45470</v>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6ImRjdnoxMnZsa2F5ZzMtT1RPTU9UT1BMIn0.sIg_SNvNihFgVFEvN28pWn0ZK3qFB_zRiZDBmE-xBFM/image;s=320x240</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Ford Explorer</t>
-        </is>
-      </c>
       <c r="E3" t="inlineStr">
         <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-ford-explorer-st-pakiet-track-pack-2-kpl-opon-ID6Gxeuq.html</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>2 998 cm3 • 363 KM • Ford Explorer ST pakiet Track Pack 2 kpl opon</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>45 000 km</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>Kraków (Małopolskie)</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>218 000</t>
         </is>
@@ -1185,40 +1202,45 @@
     </row>
     <row r="4">
       <c r="A4" t="inlineStr"/>
-      <c r="B4" s="1" t="n">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>218 000</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="n">
         <v>45473</v>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6ImRjdnoxMnZsa2F5ZzMtT1RPTU9UT1BMIn0.sIg_SNvNihFgVFEvN28pWn0ZK3qFB_zRiZDBmE-xBFM/image;s=320x240</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Ford Explorer</t>
-        </is>
-      </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-ford-explorer-st-pakiet-track-pack-2-kpl-opon-ID6Gxeuq.html</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>2 998 cm3 • 363 KM • Ford Explorer ST pakiet Track Pack 2 kpl opon</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>45 000 km</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>Kraków (Małopolskie)</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>218 000</t>
         </is>
@@ -1226,48 +1248,56 @@
     </row>
     <row r="5">
       <c r="A5" t="inlineStr"/>
-      <c r="B5" s="1" t="n">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>215 000</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="n">
         <v>45481</v>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6ImRjdnoxMnZsa2F5ZzMtT1RPTU9UT1BMIn0.sIg_SNvNihFgVFEvN28pWn0ZK3qFB_zRiZDBmE-xBFM/image;s=320x240</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Ford Explorer</t>
-        </is>
-      </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-ford-explorer-st-pakiet-track-pack-2-kpl-opon-ID6Gxeuq.html</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>2 998 cm3 • 363 KM • Ford Explorer ST pakiet Track Pack 2 kpl opon</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>45 000 km</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>Kraków (Małopolskie)</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>215 000</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1277,7 +1307,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1285,15 +1315,16 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="6" customWidth="1" min="1" max="1"/>
-    <col width="14.4" customWidth="1" min="2" max="2"/>
-    <col width="177.6" customWidth="1" min="3" max="3"/>
-    <col width="18" customWidth="1" min="4" max="4"/>
-    <col width="96" customWidth="1" min="5" max="5"/>
-    <col width="42" customWidth="1" min="6" max="6"/>
-    <col width="13.2" customWidth="1" min="7" max="7"/>
-    <col width="33.6" customWidth="1" min="8" max="8"/>
-    <col width="9.6" customWidth="1" min="9" max="9"/>
+    <col width="57.14285714285715" customWidth="1" min="1" max="1"/>
+    <col width="9.6" customWidth="1" min="2" max="2"/>
+    <col width="14.4" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="18" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="42" customWidth="1" min="7" max="7"/>
+    <col width="13.2" customWidth="1" min="8" max="8"/>
+    <col width="33.6" customWidth="1" min="9" max="9"/>
+    <col width="9.6" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1304,40 +1335,45 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>price</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>thumbnail</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>description</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>location</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>mileage</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>price</t>
         </is>
@@ -1345,40 +1381,45 @@
     </row>
     <row r="2">
       <c r="A2" t="inlineStr"/>
-      <c r="B2" s="1" t="n">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>76 500</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="n">
         <v>45467</v>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6IjVlczBldzRoeTRxcDItT1RPTU9UT1BMIn0.FUSCEU9OzPZCSFVhX8v1SifU5h4jHOynDL6icpdXPBY/image;s=320x240</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Ford Explorer</t>
-        </is>
-      </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-st-4x4-400hp-ID6GvgM5.html</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>3 000 cm3 • 400 KM • ST 4x4 400HP</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>91 886 km</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>Sękocin Nowy (Mazowieckie)</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>76 500</t>
         </is>
@@ -1386,40 +1427,45 @@
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
-      <c r="B3" s="1" t="n">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>76 500</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="n">
         <v>45470</v>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6IjVlczBldzRoeTRxcDItT1RPTU9UT1BMIn0.FUSCEU9OzPZCSFVhX8v1SifU5h4jHOynDL6icpdXPBY/image;s=320x240</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Ford Explorer</t>
-        </is>
-      </c>
       <c r="E3" t="inlineStr">
         <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-st-4x4-400hp-ID6GvgM5.html</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>3 000 cm3 • 400 KM • ST 4x4 400HP</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>91 886 km</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>Sękocin Nowy (Mazowieckie)</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>76 500</t>
         </is>
@@ -1427,40 +1473,45 @@
     </row>
     <row r="4">
       <c r="A4" t="inlineStr"/>
-      <c r="B4" s="1" t="n">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>76 500</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="n">
         <v>45473</v>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6IjVlczBldzRoeTRxcDItT1RPTU9UT1BMIn0.FUSCEU9OzPZCSFVhX8v1SifU5h4jHOynDL6icpdXPBY/image;s=320x240</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Ford Explorer</t>
-        </is>
-      </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-st-4x4-400hp-ID6GvgM5.html</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>3 000 cm3 • 400 KM • ST 4x4 400HP</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>91 886 km</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>Sękocin Nowy (Mazowieckie)</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>76 500</t>
         </is>
@@ -1468,48 +1519,56 @@
     </row>
     <row r="5">
       <c r="A5" t="inlineStr"/>
-      <c r="B5" s="1" t="n">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>76 500</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="n">
         <v>45481</v>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6IjVlczBldzRoeTRxcDItT1RPTU9UT1BMIn0.FUSCEU9OzPZCSFVhX8v1SifU5h4jHOynDL6icpdXPBY/image;s=320x240</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Ford Explorer</t>
-        </is>
-      </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-st-4x4-400hp-ID6GvgM5.html</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>3 000 cm3 • 400 KM • ST 4x4 400HP</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>91 886 km</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>Sękocin Nowy (Mazowieckie)</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>76 500</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1519,7 +1578,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1527,15 +1586,16 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="6" customWidth="1" min="1" max="1"/>
-    <col width="14.4" customWidth="1" min="2" max="2"/>
-    <col width="176.4" customWidth="1" min="3" max="3"/>
-    <col width="18" customWidth="1" min="4" max="4"/>
-    <col width="120" customWidth="1" min="5" max="5"/>
-    <col width="66" customWidth="1" min="6" max="6"/>
-    <col width="13.2" customWidth="1" min="7" max="7"/>
-    <col width="24" customWidth="1" min="8" max="8"/>
-    <col width="9.6" customWidth="1" min="9" max="9"/>
+    <col width="57.14285714285715" customWidth="1" min="1" max="1"/>
+    <col width="9.6" customWidth="1" min="2" max="2"/>
+    <col width="14.4" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="18" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="66" customWidth="1" min="7" max="7"/>
+    <col width="13.2" customWidth="1" min="8" max="8"/>
+    <col width="24" customWidth="1" min="9" max="9"/>
+    <col width="9.6" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1546,40 +1606,45 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>price</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>thumbnail</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>description</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>location</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>mileage</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>price</t>
         </is>
@@ -1587,40 +1652,45 @@
     </row>
     <row r="2">
       <c r="A2" t="inlineStr"/>
-      <c r="B2" s="1" t="n">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>64 000</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="n">
         <v>45467</v>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6ImdlNW1jbTA0Z2hpcy1PVE9NT1RPUEwifQ.A04mX021JQpJV7QxTN1yps58nah0XbxAl5lZPs0JQek/image;s=320x240</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Ford Explorer</t>
-        </is>
-      </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-2-3l-benzyna-awd-automat-wer-xlt-ID6GueJE.html</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>2 998 cm3 • 350 KM • 2.3L Benzyna AWD Automat wer.XLT</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>71 185 km</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>Katowice (Śląskie)</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>64 000</t>
         </is>
@@ -1628,40 +1698,45 @@
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
-      <c r="B3" s="1" t="n">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>64 000</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="n">
         <v>45470</v>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6ImdlNW1jbTA0Z2hpcy1PVE9NT1RPUEwifQ.A04mX021JQpJV7QxTN1yps58nah0XbxAl5lZPs0JQek/image;s=320x240</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Ford Explorer</t>
-        </is>
-      </c>
       <c r="E3" t="inlineStr">
         <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-2-3l-benzyna-awd-automat-wer-xlt-ID6GueJE.html</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>2 998 cm3 • 350 KM • 2.3L Benzyna AWD Automat wer.XLT</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>71 185 km</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>Katowice (Śląskie)</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>64 000</t>
         </is>
@@ -1669,48 +1744,56 @@
     </row>
     <row r="4">
       <c r="A4" t="inlineStr"/>
-      <c r="B4" s="1" t="n">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>64 000</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="n">
         <v>45473</v>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6ImdlNW1jbTA0Z2hpcy1PVE9NT1RPUEwifQ.A04mX021JQpJV7QxTN1yps58nah0XbxAl5lZPs0JQek/image;s=320x240</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Ford Explorer</t>
-        </is>
-      </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-2-3l-benzyna-awd-automat-wer-xlt-ID6GueJE.html</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>2 998 cm3 • 350 KM • 2.3L Benzyna AWD Automat wer.XLT</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>71 185 km</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>Katowice (Śląskie)</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>64 000</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1720,7 +1803,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1728,15 +1811,16 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="6" customWidth="1" min="1" max="1"/>
-    <col width="14.4" customWidth="1" min="2" max="2"/>
-    <col width="177.6" customWidth="1" min="3" max="3"/>
-    <col width="18" customWidth="1" min="4" max="4"/>
-    <col width="132" customWidth="1" min="5" max="5"/>
-    <col width="80.39999999999999" customWidth="1" min="6" max="6"/>
-    <col width="13.2" customWidth="1" min="7" max="7"/>
-    <col width="30" customWidth="1" min="8" max="8"/>
-    <col width="10.8" customWidth="1" min="9" max="9"/>
+    <col width="57.14285714285715" customWidth="1" min="1" max="1"/>
+    <col width="10.8" customWidth="1" min="2" max="2"/>
+    <col width="14.4" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="18" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="80.39999999999999" customWidth="1" min="7" max="7"/>
+    <col width="13.2" customWidth="1" min="8" max="8"/>
+    <col width="30" customWidth="1" min="9" max="9"/>
+    <col width="10.8" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1747,40 +1831,45 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>price</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>thumbnail</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>description</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>location</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>mileage</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>price</t>
         </is>
@@ -1788,40 +1877,45 @@
     </row>
     <row r="2">
       <c r="A2" t="inlineStr"/>
-      <c r="B2" s="1" t="n">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>188 000</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="n">
         <v>45467</v>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6InhpaTlmZHRuM3pnaTEtT1RPTU9UT1BMIn0.v7Cigz_30S8EUpauoMFxds-QylcqFlH3Ful-J8f35Nk/image;s=320x240</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Ford Explorer</t>
-        </is>
-      </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-3-3-v6-hev-290km-limited-rwd-faktura-vat23-ID6Gku4R.html</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>3 340 cm3 • 289 KM • 3.3 V6 HEV 290KM LIMITED RWD Faktura-VAT23%!</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>55 500 km</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>Nowy Sącz (Małopolskie)</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>188 000</t>
         </is>
@@ -1829,40 +1923,45 @@
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
-      <c r="B3" s="1" t="n">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>179 000</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="n">
         <v>45470</v>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6InhpaTlmZHRuM3pnaTEtT1RPTU9UT1BMIn0.v7Cigz_30S8EUpauoMFxds-QylcqFlH3Ful-J8f35Nk/image;s=320x240</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Ford Explorer</t>
-        </is>
-      </c>
       <c r="E3" t="inlineStr">
         <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-3-3-v6-hev-290km-limited-rwd-faktura-vat23-ID6Gku4R.html</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>3 340 cm3 • 289 KM • 3.3 V6 HEV 290KM LIMITED RWD Faktura-VAT23%!</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>55 500 km</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>Nowy Sącz (Małopolskie)</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>179 000</t>
         </is>
@@ -1870,40 +1969,45 @@
     </row>
     <row r="4">
       <c r="A4" t="inlineStr"/>
-      <c r="B4" s="1" t="n">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>179 000</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="n">
         <v>45473</v>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6InhpaTlmZHRuM3pnaTEtT1RPTU9UT1BMIn0.v7Cigz_30S8EUpauoMFxds-QylcqFlH3Ful-J8f35Nk/image;s=320x240</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Ford Explorer</t>
-        </is>
-      </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-3-3-v6-hev-290km-limited-rwd-faktura-vat23-ID6Gku4R.html</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>3 340 cm3 • 289 KM • 3.3 V6 HEV 290KM LIMITED RWD Faktura-VAT23%!</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>55 500 km</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>Nowy Sącz (Małopolskie)</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>179 000</t>
         </is>
@@ -1911,58 +2015,67 @@
     </row>
     <row r="5">
       <c r="A5" t="inlineStr"/>
-      <c r="B5" s="1" t="n">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>179 000</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="n">
         <v>45481</v>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6InhpaTlmZHRuM3pnaTEtT1RPTU9UT1BMIn0.v7Cigz_30S8EUpauoMFxds-QylcqFlH3Ful-J8f35Nk/image;s=320x240</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Ford Explorer</t>
-        </is>
-      </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-3-3-v6-hev-290km-limited-rwd-faktura-vat23-ID6Gku4R.html</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>3 340 cm3 • 289 KM • 3.3 V6 HEV 290KM LIMITED RWD Faktura-VAT23%!</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>55 500 km</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>Nowy Sącz (Małopolskie)</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>179 000</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
+    <tabColor rgb="00FF0000"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1970,15 +2083,16 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="6" customWidth="1" min="1" max="1"/>
-    <col width="14.4" customWidth="1" min="2" max="2"/>
-    <col width="176.4" customWidth="1" min="3" max="3"/>
-    <col width="18" customWidth="1" min="4" max="4"/>
-    <col width="84" customWidth="1" min="5" max="5"/>
-    <col width="30" customWidth="1" min="6" max="6"/>
-    <col width="13.2" customWidth="1" min="7" max="7"/>
-    <col width="27.6" customWidth="1" min="8" max="8"/>
-    <col width="10.8" customWidth="1" min="9" max="9"/>
+    <col width="57.14285714285715" customWidth="1" min="1" max="1"/>
+    <col width="10.8" customWidth="1" min="2" max="2"/>
+    <col width="14.4" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="18" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="30" customWidth="1" min="7" max="7"/>
+    <col width="13.2" customWidth="1" min="8" max="8"/>
+    <col width="27.6" customWidth="1" min="9" max="9"/>
+    <col width="10.8" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1989,40 +2103,45 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>price</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>thumbnail</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>description</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>location</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>mileage</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>price</t>
         </is>
@@ -2030,40 +2149,45 @@
     </row>
     <row r="2">
       <c r="A2" t="inlineStr"/>
-      <c r="B2" s="1" t="n">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>213 900</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="n">
         <v>45467</v>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6IjUwbmt0NHZ3M3RlaC1PVE9NT1RPUEwifQ.TS3UU36dvTC4ia0ccKHkIEWZ7OYNKlpPwpeLR1YI2KQ/image;s=320x240</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Ford Explorer</t>
-        </is>
-      </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-st-ID6GwcNq.html</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>2 956 cm3 • 400 KM • St</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>75 033 km</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>Siedlce (Mazowieckie)</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>213 900</t>
         </is>
@@ -2071,40 +2195,45 @@
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
-      <c r="B3" s="1" t="n">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>213 900</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="n">
         <v>45470</v>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6IjUwbmt0NHZ3M3RlaC1PVE9NT1RPUEwifQ.TS3UU36dvTC4ia0ccKHkIEWZ7OYNKlpPwpeLR1YI2KQ/image;s=320x240</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Ford Explorer</t>
-        </is>
-      </c>
       <c r="E3" t="inlineStr">
         <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-st-ID6GwcNq.html</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>2 956 cm3 • 400 KM • St</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>75 033 km</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>Siedlce (Mazowieckie)</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>213 900</t>
         </is>
@@ -2112,48 +2241,56 @@
     </row>
     <row r="4">
       <c r="A4" t="inlineStr"/>
-      <c r="B4" s="1" t="n">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>213 900</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="n">
         <v>45473</v>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6IjUwbmt0NHZ3M3RlaC1PVE9NT1RPUEwifQ.TS3UU36dvTC4ia0ccKHkIEWZ7OYNKlpPwpeLR1YI2KQ/image;s=320x240</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Ford Explorer</t>
-        </is>
-      </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-st-ID6GwcNq.html</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>2 956 cm3 • 400 KM • St</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>75 033 km</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>Siedlce (Mazowieckie)</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>213 900</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2163,7 +2300,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2171,15 +2308,16 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="6" customWidth="1" min="1" max="1"/>
-    <col width="14.4" customWidth="1" min="2" max="2"/>
-    <col width="177.6" customWidth="1" min="3" max="3"/>
-    <col width="18" customWidth="1" min="4" max="4"/>
-    <col width="80.39999999999999" customWidth="1" min="5" max="5"/>
-    <col width="24" customWidth="1" min="6" max="6"/>
-    <col width="13.2" customWidth="1" min="7" max="7"/>
-    <col width="22.8" customWidth="1" min="8" max="8"/>
-    <col width="10.8" customWidth="1" min="9" max="9"/>
+    <col width="57.14285714285715" customWidth="1" min="1" max="1"/>
+    <col width="10.8" customWidth="1" min="2" max="2"/>
+    <col width="14.4" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="18" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="24" customWidth="1" min="7" max="7"/>
+    <col width="13.2" customWidth="1" min="8" max="8"/>
+    <col width="22.8" customWidth="1" min="9" max="9"/>
+    <col width="10.8" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2190,40 +2328,45 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>price</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>thumbnail</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>description</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>location</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>mileage</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>price</t>
         </is>
@@ -2231,40 +2374,45 @@
     </row>
     <row r="2">
       <c r="A2" t="inlineStr"/>
-      <c r="B2" s="1" t="n">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>196 800</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="n">
         <v>45467</v>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6InJ2NHM3ejU1aWw5bTItT1RPTU9UT1BMIn0.6OwIgYYBt0Yd_2eKcBwj3QTQew1bziW-7sZZYUrmgtA/image;s=320x240</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Ford Explorer</t>
-        </is>
-      </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-ID6GwYvH.html</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>2 998 cm3 • 350 KM</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>76 000 km</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>Mońki (Podlaskie)</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>196 800</t>
         </is>
@@ -2272,40 +2420,45 @@
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
-      <c r="B3" s="1" t="n">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>196 800</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="n">
         <v>45470</v>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6InJ2NHM3ejU1aWw5bTItT1RPTU9UT1BMIn0.6OwIgYYBt0Yd_2eKcBwj3QTQew1bziW-7sZZYUrmgtA/image;s=320x240</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Ford Explorer</t>
-        </is>
-      </c>
       <c r="E3" t="inlineStr">
         <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-ID6GwYvH.html</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>2 998 cm3 • 350 KM</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>76 000 km</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>Mońki (Podlaskie)</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>196 800</t>
         </is>
@@ -2313,40 +2466,45 @@
     </row>
     <row r="4">
       <c r="A4" t="inlineStr"/>
-      <c r="B4" s="1" t="n">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>196 800</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="n">
         <v>45473</v>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6InJ2NHM3ejU1aWw5bTItT1RPTU9UT1BMIn0.6OwIgYYBt0Yd_2eKcBwj3QTQew1bziW-7sZZYUrmgtA/image;s=320x240</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Ford Explorer</t>
-        </is>
-      </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-ID6GwYvH.html</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>2 998 cm3 • 350 KM</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>76 000 km</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>Mońki (Podlaskie)</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>196 800</t>
         </is>
@@ -2354,58 +2512,67 @@
     </row>
     <row r="5">
       <c r="A5" t="inlineStr"/>
-      <c r="B5" s="1" t="n">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>196 800</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="n">
         <v>45481</v>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6InJ2NHM3ejU1aWw5bTItT1RPTU9UT1BMIn0.6OwIgYYBt0Yd_2eKcBwj3QTQew1bziW-7sZZYUrmgtA/image;s=320x240</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Ford Explorer</t>
-        </is>
-      </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-ID6GwYvH.html</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>2 998 cm3 • 350 KM</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>76 000 km</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>Mońki (Podlaskie)</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>196 800</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
+    <tabColor rgb="0000FF00"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2413,15 +2580,16 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="6" customWidth="1" min="1" max="1"/>
-    <col width="14.4" customWidth="1" min="2" max="2"/>
-    <col width="177.6" customWidth="1" min="3" max="3"/>
-    <col width="18" customWidth="1" min="4" max="4"/>
-    <col width="132" customWidth="1" min="5" max="5"/>
-    <col width="78" customWidth="1" min="6" max="6"/>
-    <col width="13.2" customWidth="1" min="7" max="7"/>
-    <col width="36" customWidth="1" min="8" max="8"/>
-    <col width="10.8" customWidth="1" min="9" max="9"/>
+    <col width="57.14285714285715" customWidth="1" min="1" max="1"/>
+    <col width="10.8" customWidth="1" min="2" max="2"/>
+    <col width="14.4" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="18" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="78" customWidth="1" min="7" max="7"/>
+    <col width="13.2" customWidth="1" min="8" max="8"/>
+    <col width="36" customWidth="1" min="9" max="9"/>
+    <col width="10.8" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2432,40 +2600,45 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>price</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>thumbnail</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>description</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>location</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>mileage</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>price</t>
         </is>
@@ -2473,40 +2646,45 @@
     </row>
     <row r="2">
       <c r="A2" t="inlineStr"/>
-      <c r="B2" s="1" t="n">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>189 900</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="n">
         <v>45467</v>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6InNicDAxb2tpM2VjaDItT1RPTU9UT1BMIn0.LoFAk0J0jqFhr5qGr3zwHr-FcP0lOQk5EiCsT27r5jY/image;s=320x240</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Ford Explorer</t>
-        </is>
-      </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-3-0-400km-super-stan-biala-masaze-navi-4x4-ID6GvrtU.html</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>2 998 cm3 • 400 KM • 3.0 400km super stan BIAŁA masaże Navi 4x4</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>99 706 km</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>Aleksandrów Łódzki (Łódzkie)</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>189 900</t>
         </is>
@@ -2514,40 +2692,45 @@
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
-      <c r="B3" s="1" t="n">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>189 900</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="n">
         <v>45470</v>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6InNicDAxb2tpM2VjaDItT1RPTU9UT1BMIn0.LoFAk0J0jqFhr5qGr3zwHr-FcP0lOQk5EiCsT27r5jY/image;s=320x240</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Ford Explorer</t>
-        </is>
-      </c>
       <c r="E3" t="inlineStr">
         <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-3-0-400km-super-stan-biala-masaze-navi-4x4-ID6GvrtU.html</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>2 998 cm3 • 400 KM • 3.0 400km super stan BIAŁA masaże Navi 4x4</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>99 706 km</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>Aleksandrów Łódzki (Łódzkie)</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>189 900</t>
         </is>
@@ -2555,40 +2738,45 @@
     </row>
     <row r="4">
       <c r="A4" t="inlineStr"/>
-      <c r="B4" s="1" t="n">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>189 900</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="n">
         <v>45473</v>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6InNicDAxb2tpM2VjaDItT1RPTU9UT1BMIn0.LoFAk0J0jqFhr5qGr3zwHr-FcP0lOQk5EiCsT27r5jY/image;s=320x240</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Ford Explorer</t>
-        </is>
-      </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-3-0-400km-super-stan-biala-masaze-navi-4x4-ID6GvrtU.html</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>2 998 cm3 • 400 KM • 3.0 400km super stan BIAŁA masaże Navi 4x4</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>99 706 km</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>Aleksandrów Łódzki (Łódzkie)</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>189 900</t>
         </is>
@@ -2596,58 +2784,67 @@
     </row>
     <row r="5">
       <c r="A5" t="inlineStr"/>
-      <c r="B5" s="1" t="n">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>179 900</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="n">
         <v>45481</v>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6InNicDAxb2tpM2VjaDItT1RPTU9UT1BMIn0.LoFAk0J0jqFhr5qGr3zwHr-FcP0lOQk5EiCsT27r5jY/image;s=320x240</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Ford Explorer</t>
-        </is>
-      </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-3-0-400km-super-stan-biala-masaze-navi-4x4-ID6GvrtU.html</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>2 998 cm3 • 400 KM • 3.0 400km super stan BIAŁA masaże Navi 4x4</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>99 706 km</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>Aleksandrów Łódzki (Łódzkie)</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>179 900</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
+    <tabColor rgb="0000FF00"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2655,15 +2852,16 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="6" customWidth="1" min="1" max="1"/>
-    <col width="14.4" customWidth="1" min="2" max="2"/>
-    <col width="176.4" customWidth="1" min="3" max="3"/>
-    <col width="18" customWidth="1" min="4" max="4"/>
-    <col width="127.2" customWidth="1" min="5" max="5"/>
-    <col width="73.2" customWidth="1" min="6" max="6"/>
-    <col width="13.2" customWidth="1" min="7" max="7"/>
-    <col width="27.6" customWidth="1" min="8" max="8"/>
-    <col width="10.8" customWidth="1" min="9" max="9"/>
+    <col width="57.14285714285715" customWidth="1" min="1" max="1"/>
+    <col width="10.8" customWidth="1" min="2" max="2"/>
+    <col width="14.4" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="18" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="73.2" customWidth="1" min="7" max="7"/>
+    <col width="13.2" customWidth="1" min="8" max="8"/>
+    <col width="27.6" customWidth="1" min="9" max="9"/>
+    <col width="10.8" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2674,40 +2872,45 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>price</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>thumbnail</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>description</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>location</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>mileage</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>price</t>
         </is>
@@ -2715,40 +2918,45 @@
     </row>
     <row r="2">
       <c r="A2" t="inlineStr"/>
-      <c r="B2" s="1" t="n">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>234 500</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="n">
         <v>45470</v>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6InE1bzNoZm96N2FiaC1PVE9NT1RPUEwifQ.bBdZ_OYOLpezLtS4pSL7FElvvd8mGG8MMjgLll94GXg/image;s=320x240</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Ford Explorer</t>
-        </is>
-      </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-ford-explorer-st-3-0-v6-400km-7-miejsc-ID6FPIy8.html</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>2 998 cm3 • 400 KM • Ford Explorer ST 3.0 V6 400km 7-miejsc</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>24 500 km</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>Białystok (Podlaskie)</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>234 500</t>
         </is>
@@ -2756,40 +2964,45 @@
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
-      <c r="B3" s="1" t="n">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>234 500</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="n">
         <v>45473</v>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6InE1bzNoZm96N2FiaC1PVE9NT1RPUEwifQ.bBdZ_OYOLpezLtS4pSL7FElvvd8mGG8MMjgLll94GXg/image;s=320x240</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Ford Explorer</t>
-        </is>
-      </c>
       <c r="E3" t="inlineStr">
         <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-ford-explorer-st-3-0-v6-400km-7-miejsc-ID6FPIy8.html</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>2 998 cm3 • 400 KM • Ford Explorer ST 3.0 V6 400km 7-miejsc</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>24 500 km</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>Białystok (Podlaskie)</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>234 500</t>
         </is>
@@ -2797,58 +3010,67 @@
     </row>
     <row r="4">
       <c r="A4" t="inlineStr"/>
-      <c r="B4" s="1" t="n">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>234 500</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="n">
         <v>45481</v>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6InE1bzNoZm96N2FiaC1PVE9NT1RPUEwifQ.bBdZ_OYOLpezLtS4pSL7FElvvd8mGG8MMjgLll94GXg/image;s=320x240</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Ford Explorer</t>
-        </is>
-      </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-ford-explorer-st-3-0-v6-400km-7-miejsc-ID6FPIy8.html</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>2 998 cm3 • 400 KM • Ford Explorer ST 3.0 V6 400km 7-miejsc</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>24 500 km</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>Białystok (Podlaskie)</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>234 500</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
+    <tabColor rgb="0000FF00"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2856,15 +3078,16 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="6" customWidth="1" min="1" max="1"/>
-    <col width="14.4" customWidth="1" min="2" max="2"/>
-    <col width="177.6" customWidth="1" min="3" max="3"/>
-    <col width="18" customWidth="1" min="4" max="4"/>
-    <col width="100.8" customWidth="1" min="5" max="5"/>
-    <col width="46.8" customWidth="1" min="6" max="6"/>
-    <col width="13.2" customWidth="1" min="7" max="7"/>
-    <col width="34.8" customWidth="1" min="8" max="8"/>
-    <col width="10.8" customWidth="1" min="9" max="9"/>
+    <col width="57.14285714285715" customWidth="1" min="1" max="1"/>
+    <col width="10.8" customWidth="1" min="2" max="2"/>
+    <col width="14.4" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="18" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="46.8" customWidth="1" min="7" max="7"/>
+    <col width="13.2" customWidth="1" min="8" max="8"/>
+    <col width="34.8" customWidth="1" min="9" max="9"/>
+    <col width="10.8" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2875,40 +3098,45 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>price</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>thumbnail</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>description</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>location</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>mileage</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>price</t>
         </is>
@@ -2916,40 +3144,45 @@
     </row>
     <row r="2">
       <c r="A2" t="inlineStr"/>
-      <c r="B2" s="1" t="n">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>210 000</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="n">
         <v>45470</v>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6InA0dGVyeTF0d2JkMTEtT1RPTU9UT1BMIn0.GnhoXrNkQmO-w81vNCwO39kCr2ypNWwAXUTFqh7idFk/image;s=320x240</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Ford Explorer</t>
-        </is>
-      </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-ford-explorer-st-ID6GazcR.html</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>2 998 cm3 • 404 KM • Ford Explorer ST</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>29 818 km</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>Nawojowa Góra (Małopolskie)</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>210 000</t>
         </is>
@@ -2957,40 +3190,45 @@
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
-      <c r="B3" s="1" t="n">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>210 000</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="n">
         <v>45473</v>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6InA0dGVyeTF0d2JkMTEtT1RPTU9UT1BMIn0.GnhoXrNkQmO-w81vNCwO39kCr2ypNWwAXUTFqh7idFk/image;s=320x240</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Ford Explorer</t>
-        </is>
-      </c>
       <c r="E3" t="inlineStr">
         <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-ford-explorer-st-ID6GazcR.html</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>2 998 cm3 • 404 KM • Ford Explorer ST</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>29 818 km</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>Nawojowa Góra (Małopolskie)</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>210 000</t>
         </is>
@@ -2998,58 +3236,67 @@
     </row>
     <row r="4">
       <c r="A4" t="inlineStr"/>
-      <c r="B4" s="1" t="n">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>210 000</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="n">
         <v>45481</v>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6InA0dGVyeTF0d2JkMTEtT1RPTU9UT1BMIn0.GnhoXrNkQmO-w81vNCwO39kCr2ypNWwAXUTFqh7idFk/image;s=320x240</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Ford Explorer</t>
-        </is>
-      </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-ford-explorer-st-ID6GazcR.html</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>2 998 cm3 • 404 KM • Ford Explorer ST</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>29 818 km</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>Nawojowa Góra (Małopolskie)</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>210 000</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
+    <tabColor rgb="00FFA500"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3057,15 +3304,16 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="6" customWidth="1" min="1" max="1"/>
-    <col width="14.4" customWidth="1" min="2" max="2"/>
-    <col width="177.6" customWidth="1" min="3" max="3"/>
-    <col width="18" customWidth="1" min="4" max="4"/>
-    <col width="115.2" customWidth="1" min="5" max="5"/>
-    <col width="61.2" customWidth="1" min="6" max="6"/>
-    <col width="13.2" customWidth="1" min="7" max="7"/>
-    <col width="27.6" customWidth="1" min="8" max="8"/>
-    <col width="10.8" customWidth="1" min="9" max="9"/>
+    <col width="57.14285714285715" customWidth="1" min="1" max="1"/>
+    <col width="10.8" customWidth="1" min="2" max="2"/>
+    <col width="14.4" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="18" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="61.2" customWidth="1" min="7" max="7"/>
+    <col width="13.2" customWidth="1" min="8" max="8"/>
+    <col width="27.6" customWidth="1" min="9" max="9"/>
+    <col width="10.8" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3076,40 +3324,45 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>price</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>thumbnail</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>description</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>location</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>mileage</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>price</t>
         </is>
@@ -3117,58 +3370,67 @@
     </row>
     <row r="2">
       <c r="A2" t="inlineStr"/>
-      <c r="B2" s="1" t="n">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>159 500</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="n">
         <v>45481</v>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6InEzejQxNHpsc2tsejItT1RPTU9UT1BMIn0.79AyrXRI4L564ZFfFSZD4n-PUNyVnFN4yBazBqzvryY/image;s=320x240</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Ford Explorer</t>
-        </is>
-      </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-2020-4x4-2-3-ecoboost-303-km-ID6FBW60.html</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>2 300 cm3 • 303 KM • 2020 4x4 2.3 Ecoboost 303 KM</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>31 600 km</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>Świebodzin (Lubuskie)</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>159 500</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
+    <tabColor rgb="00FFA500"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3176,15 +3438,16 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="6" customWidth="1" min="1" max="1"/>
-    <col width="14.4" customWidth="1" min="2" max="2"/>
-    <col width="177.6" customWidth="1" min="3" max="3"/>
-    <col width="18" customWidth="1" min="4" max="4"/>
-    <col width="126" customWidth="1" min="5" max="5"/>
-    <col width="73.2" customWidth="1" min="6" max="6"/>
-    <col width="13.2" customWidth="1" min="7" max="7"/>
-    <col width="32.4" customWidth="1" min="8" max="8"/>
-    <col width="10.8" customWidth="1" min="9" max="9"/>
+    <col width="57.14285714285715" customWidth="1" min="1" max="1"/>
+    <col width="10.8" customWidth="1" min="2" max="2"/>
+    <col width="14.4" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="18" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="73.2" customWidth="1" min="7" max="7"/>
+    <col width="13.2" customWidth="1" min="8" max="8"/>
+    <col width="32.4" customWidth="1" min="9" max="9"/>
+    <col width="10.8" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3195,40 +3458,45 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>price</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>thumbnail</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>description</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>location</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>mileage</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>price</t>
         </is>
@@ -3236,48 +3504,56 @@
     </row>
     <row r="2">
       <c r="A2" t="inlineStr"/>
-      <c r="B2" s="1" t="n">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>127 000</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="n">
         <v>45481</v>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6ImEzNDJwZHVyZ3h1YjEtT1RPTU9UT1BMIn0.-LylBsY2COZGGKX0JeribumyVgSZjyVIGTPTZwMTLIE/image;s=320x240</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Ford Explorer</t>
-        </is>
-      </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-ford-explorer-2020-pojemnosc-2-3l-4x4-ID6GuyVP.html</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>2 998 cm3 • 350 KM • Ford Explorer 2020 Pojemność 2.3l, 4x4</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>85 324 km</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>Boguchwała (Podkarpackie)</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>127 000</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3287,7 +3563,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3295,15 +3571,16 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="6" customWidth="1" min="1" max="1"/>
-    <col width="14.4" customWidth="1" min="2" max="2"/>
-    <col width="177.6" customWidth="1" min="3" max="3"/>
-    <col width="18" customWidth="1" min="4" max="4"/>
-    <col width="130.8" customWidth="1" min="5" max="5"/>
-    <col width="79.2" customWidth="1" min="6" max="6"/>
-    <col width="13.2" customWidth="1" min="7" max="7"/>
-    <col width="28.8" customWidth="1" min="8" max="8"/>
-    <col width="10.8" customWidth="1" min="9" max="9"/>
+    <col width="57.14285714285715" customWidth="1" min="1" max="1"/>
+    <col width="10.8" customWidth="1" min="2" max="2"/>
+    <col width="14.4" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="18" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="79.2" customWidth="1" min="7" max="7"/>
+    <col width="13.2" customWidth="1" min="8" max="8"/>
+    <col width="28.8" customWidth="1" min="9" max="9"/>
+    <col width="10.8" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3314,40 +3591,45 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>price</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>thumbnail</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>description</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>location</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>mileage</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>price</t>
         </is>
@@ -3355,40 +3637,45 @@
     </row>
     <row r="2">
       <c r="A2" t="inlineStr"/>
-      <c r="B2" s="1" t="n">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>155 000</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="n">
         <v>45467</v>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6IjRxZGNtYjZ6eGdvcDMtT1RPTU9UT1BMIn0.uPu5BXmQ8-pCiGsdIfFyAtc-toUNP1V0616q-mLT1y4/image;s=320x240</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Ford Explorer</t>
-        </is>
-      </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-ford-explorer-xlt-2-3-ecoboost-303km-2020-ID6GsaaA.html</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>2 998 cm3 • 350 KM • Ford Explorer XLT 2.3 ecoboost 303KM - 2020</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>72 800 km</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>Budzyń (Wielkopolskie)</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>155 000</t>
         </is>
@@ -3396,40 +3683,45 @@
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
-      <c r="B3" s="1" t="n">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>153 500</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="n">
         <v>45470</v>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6IjRxZGNtYjZ6eGdvcDMtT1RPTU9UT1BMIn0.uPu5BXmQ8-pCiGsdIfFyAtc-toUNP1V0616q-mLT1y4/image;s=320x240</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Ford Explorer</t>
-        </is>
-      </c>
       <c r="E3" t="inlineStr">
         <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-ford-explorer-xlt-2-3-ecoboost-303km-2020-ID6GsaaA.html</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>2 998 cm3 • 350 KM • Ford Explorer XLT 2.3 ecoboost 303KM - 2020</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>72 800 km</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>Budzyń (Wielkopolskie)</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>153 500</t>
         </is>
@@ -3437,40 +3729,45 @@
     </row>
     <row r="4">
       <c r="A4" t="inlineStr"/>
-      <c r="B4" s="1" t="n">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>153 500</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="n">
         <v>45473</v>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6IjRxZGNtYjZ6eGdvcDMtT1RPTU9UT1BMIn0.uPu5BXmQ8-pCiGsdIfFyAtc-toUNP1V0616q-mLT1y4/image;s=320x240</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Ford Explorer</t>
-        </is>
-      </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-ford-explorer-xlt-2-3-ecoboost-303km-2020-ID6GsaaA.html</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>2 998 cm3 • 350 KM • Ford Explorer XLT 2.3 ecoboost 303KM - 2020</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>72 800 km</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>Budzyń (Wielkopolskie)</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>153 500</t>
         </is>
@@ -3478,58 +3775,67 @@
     </row>
     <row r="5">
       <c r="A5" t="inlineStr"/>
-      <c r="B5" s="1" t="n">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>148 500</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="n">
         <v>45481</v>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6IjRxZGNtYjZ6eGdvcDMtT1RPTU9UT1BMIn0.uPu5BXmQ8-pCiGsdIfFyAtc-toUNP1V0616q-mLT1y4/image;s=320x240</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Ford Explorer</t>
-        </is>
-      </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-ford-explorer-xlt-2-3-ecoboost-303km-2020-ID6GsaaA.html</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>2 998 cm3 • 350 KM • Ford Explorer XLT 2.3 ecoboost 303KM - 2020</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>72 800 km</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>Budzyń (Wielkopolskie)</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>148 500</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
+    <tabColor rgb="00FFA500"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3537,15 +3843,16 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="6" customWidth="1" min="1" max="1"/>
-    <col width="14.4" customWidth="1" min="2" max="2"/>
-    <col width="177.6" customWidth="1" min="3" max="3"/>
-    <col width="18" customWidth="1" min="4" max="4"/>
-    <col width="99.59999999999999" customWidth="1" min="5" max="5"/>
-    <col width="48" customWidth="1" min="6" max="6"/>
-    <col width="13.2" customWidth="1" min="7" max="7"/>
-    <col width="22.8" customWidth="1" min="8" max="8"/>
-    <col width="9.6" customWidth="1" min="9" max="9"/>
+    <col width="57.14285714285715" customWidth="1" min="1" max="1"/>
+    <col width="9.6" customWidth="1" min="2" max="2"/>
+    <col width="14.4" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="18" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="48" customWidth="1" min="7" max="7"/>
+    <col width="13.2" customWidth="1" min="8" max="8"/>
+    <col width="22.8" customWidth="1" min="9" max="9"/>
+    <col width="9.6" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3556,40 +3863,45 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>price</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>thumbnail</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>description</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>location</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>mileage</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>price</t>
         </is>
@@ -3597,58 +3909,67 @@
     </row>
     <row r="2">
       <c r="A2" t="inlineStr"/>
-      <c r="B2" s="1" t="n">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>99 900</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="n">
         <v>45481</v>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6InBxYzVvaGlwYXd6dDEtT1RPTU9UT1BMIn0._wdFRBs-bNfdwlZZ1uu61ydXewAvapMs7hQF91CGWmw/image;s=320x240</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Ford Explorer</t>
-        </is>
-      </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-st-fv23-leasing-ID6GzGhZ.html</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>2 998 cm3 • 350 KM • ST FV23% Leasing!</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>44 743 km</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>Gaj (Małopolskie)</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>99 900</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
+    <tabColor rgb="0000FF00"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3656,15 +3977,16 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="6" customWidth="1" min="1" max="1"/>
-    <col width="14.4" customWidth="1" min="2" max="2"/>
-    <col width="176.4" customWidth="1" min="3" max="3"/>
-    <col width="18" customWidth="1" min="4" max="4"/>
-    <col width="108" customWidth="1" min="5" max="5"/>
-    <col width="54" customWidth="1" min="6" max="6"/>
-    <col width="13.2" customWidth="1" min="7" max="7"/>
-    <col width="42" customWidth="1" min="8" max="8"/>
-    <col width="10.8" customWidth="1" min="9" max="9"/>
+    <col width="57.14285714285715" customWidth="1" min="1" max="1"/>
+    <col width="10.8" customWidth="1" min="2" max="2"/>
+    <col width="14.4" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="18" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="54" customWidth="1" min="7" max="7"/>
+    <col width="13.2" customWidth="1" min="8" max="8"/>
+    <col width="42" customWidth="1" min="9" max="9"/>
+    <col width="10.8" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3675,40 +3997,45 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>price</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>thumbnail</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>description</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>location</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>mileage</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>price</t>
         </is>
@@ -3716,40 +4043,45 @@
     </row>
     <row r="2">
       <c r="A2" t="inlineStr"/>
-      <c r="B2" s="1" t="n">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>219 000</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="n">
         <v>45467</v>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6IjU2c3ZzdzJybWxqai1PVE9NT1RPUEwifQ.XwEJ4bLBSbTtfyuOIIsumOO6N3k_SDUqHhLwX1EKO2c/image;s=320x240</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Ford Explorer</t>
-        </is>
-      </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-ford-explorer-st-400km-ID6GqSpp.html</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>2 956 cm3 • 400 KM • Ford Explorer ST 400KM</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>82 000 km</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>Konstancin-Jeziorna (Mazowieckie)</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>219 000</t>
         </is>
@@ -3757,40 +4089,45 @@
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
-      <c r="B3" s="1" t="n">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>219 000</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="n">
         <v>45470</v>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6IjU2c3ZzdzJybWxqai1PVE9NT1RPUEwifQ.XwEJ4bLBSbTtfyuOIIsumOO6N3k_SDUqHhLwX1EKO2c/image;s=320x240</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Ford Explorer</t>
-        </is>
-      </c>
       <c r="E3" t="inlineStr">
         <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-ford-explorer-st-400km-ID6GqSpp.html</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>2 956 cm3 • 400 KM • Ford Explorer ST 400KM</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>82 000 km</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>Konstancin-Jeziorna (Mazowieckie)</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>219 000</t>
         </is>
@@ -3798,40 +4135,45 @@
     </row>
     <row r="4">
       <c r="A4" t="inlineStr"/>
-      <c r="B4" s="1" t="n">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>219 000</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="n">
         <v>45473</v>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6IjU2c3ZzdzJybWxqai1PVE9NT1RPUEwifQ.XwEJ4bLBSbTtfyuOIIsumOO6N3k_SDUqHhLwX1EKO2c/image;s=320x240</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Ford Explorer</t>
-        </is>
-      </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-ford-explorer-st-400km-ID6GqSpp.html</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>2 956 cm3 • 400 KM • Ford Explorer ST 400KM</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>82 000 km</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>Konstancin-Jeziorna (Mazowieckie)</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>219 000</t>
         </is>
@@ -3839,48 +4181,56 @@
     </row>
     <row r="5">
       <c r="A5" t="inlineStr"/>
-      <c r="B5" s="1" t="n">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>219 000</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="n">
         <v>45481</v>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6IjU2c3ZzdzJybWxqai1PVE9NT1RPUEwifQ.XwEJ4bLBSbTtfyuOIIsumOO6N3k_SDUqHhLwX1EKO2c/image;s=320x240</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Ford Explorer</t>
-        </is>
-      </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-ford-explorer-st-400km-ID6GqSpp.html</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>2 956 cm3 • 400 KM • Ford Explorer ST 400KM</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>82 000 km</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>Konstancin-Jeziorna (Mazowieckie)</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>219 000</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3890,7 +4240,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3898,15 +4248,16 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="6" customWidth="1" min="1" max="1"/>
-    <col width="14.4" customWidth="1" min="2" max="2"/>
-    <col width="177.6" customWidth="1" min="3" max="3"/>
-    <col width="54" customWidth="1" min="4" max="4"/>
-    <col width="128.4" customWidth="1" min="5" max="5"/>
-    <col width="74.39999999999999" customWidth="1" min="6" max="6"/>
-    <col width="13.2" customWidth="1" min="7" max="7"/>
-    <col width="26.4" customWidth="1" min="8" max="8"/>
-    <col width="9.6" customWidth="1" min="9" max="9"/>
+    <col width="57.14285714285715" customWidth="1" min="1" max="1"/>
+    <col width="9.6" customWidth="1" min="2" max="2"/>
+    <col width="14.4" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="54" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="74.39999999999999" customWidth="1" min="7" max="7"/>
+    <col width="13.2" customWidth="1" min="8" max="8"/>
+    <col width="26.4" customWidth="1" min="9" max="9"/>
+    <col width="9.6" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3917,40 +4268,45 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>price</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>thumbnail</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>description</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>location</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>mileage</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>price</t>
         </is>
@@ -3958,40 +4314,45 @@
     </row>
     <row r="2">
       <c r="A2" t="inlineStr"/>
-      <c r="B2" s="1" t="n">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>72 950</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="n">
         <v>45467</v>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6IjRrbnljZWhyYzQ5bjMtT1RPTU9UT1BMIn0.v65qq_pSzj0-VFJnVCNPwhTYP7eYGKvpR1DnE3j9i9U/image;s=320x240</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>Ford Explorer 3.0 EcoBoost PHEV 4WD ST-Line</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-niski-przebieg-piekny-srodek-awd-400-hp-ID6GvEeE.html</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>2 998 cm3 • 350 KM • Niski Przebieg,Piękny Środek AWD 400 hp</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>65 597 km</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>Węgrów (Mazowieckie)</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>72 950</t>
         </is>
@@ -3999,40 +4360,45 @@
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
-      <c r="B3" s="1" t="n">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>72 950</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="n">
         <v>45470</v>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6IjRrbnljZWhyYzQ5bjMtT1RPTU9UT1BMIn0.v65qq_pSzj0-VFJnVCNPwhTYP7eYGKvpR1DnE3j9i9U/image;s=320x240</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>Ford Explorer 3.0 EcoBoost PHEV 4WD ST-Line</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-niski-przebieg-piekny-srodek-awd-400-hp-ID6GvEeE.html</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>2 998 cm3 • 350 KM • Niski Przebieg,Piękny Środek AWD 400 hp</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>65 597 km</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>Węgrów (Mazowieckie)</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>72 950</t>
         </is>
@@ -4040,40 +4406,45 @@
     </row>
     <row r="4">
       <c r="A4" t="inlineStr"/>
-      <c r="B4" s="1" t="n">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>72 950</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="n">
         <v>45473</v>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6IjRrbnljZWhyYzQ5bjMtT1RPTU9UT1BMIn0.v65qq_pSzj0-VFJnVCNPwhTYP7eYGKvpR1DnE3j9i9U/image;s=320x240</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>Ford Explorer 3.0 EcoBoost PHEV 4WD ST-Line</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-niski-przebieg-piekny-srodek-awd-400-hp-ID6GvEeE.html</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>2 998 cm3 • 350 KM • Niski Przebieg,Piękny Środek AWD 400 hp</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>65 597 km</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>Węgrów (Mazowieckie)</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>72 950</t>
         </is>
@@ -4081,48 +4452,56 @@
     </row>
     <row r="5">
       <c r="A5" t="inlineStr"/>
-      <c r="B5" s="1" t="n">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>72 950</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="n">
         <v>45481</v>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6IjRrbnljZWhyYzQ5bjMtT1RPTU9UT1BMIn0.v65qq_pSzj0-VFJnVCNPwhTYP7eYGKvpR1DnE3j9i9U/image;s=320x240</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Ford Explorer 3.0 EcoBoost PHEV 4WD ST-Line</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-niski-przebieg-piekny-srodek-awd-400-hp-ID6GvEeE.html</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>2 998 cm3 • 350 KM • Niski Przebieg,Piękny Środek AWD 400 hp</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>65 597 km</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>Węgrów (Mazowieckie)</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>72 950</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4132,7 +4511,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4140,15 +4519,16 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="6" customWidth="1" min="1" max="1"/>
-    <col width="14.4" customWidth="1" min="2" max="2"/>
-    <col width="177.6" customWidth="1" min="3" max="3"/>
-    <col width="18" customWidth="1" min="4" max="4"/>
-    <col width="120" customWidth="1" min="5" max="5"/>
-    <col width="67.2" customWidth="1" min="6" max="6"/>
-    <col width="13.2" customWidth="1" min="7" max="7"/>
-    <col width="28.8" customWidth="1" min="8" max="8"/>
-    <col width="10.8" customWidth="1" min="9" max="9"/>
+    <col width="57.14285714285715" customWidth="1" min="1" max="1"/>
+    <col width="10.8" customWidth="1" min="2" max="2"/>
+    <col width="14.4" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="18" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="67.2" customWidth="1" min="7" max="7"/>
+    <col width="13.2" customWidth="1" min="8" max="8"/>
+    <col width="28.8" customWidth="1" min="9" max="9"/>
+    <col width="10.8" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4159,40 +4539,45 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>price</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>thumbnail</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>description</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>location</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>mileage</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>price</t>
         </is>
@@ -4200,40 +4585,45 @@
     </row>
     <row r="2">
       <c r="A2" t="inlineStr"/>
-      <c r="B2" s="1" t="n">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>129 000</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="n">
         <v>45467</v>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6InRzcW5vdWs0bGRyZzMtT1RPTU9UT1BMIn0.qzrm202gefFVMn_sJWhSESsycd64Jb3ipUa1XqLFa1k/image;s=320x240</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Ford Explorer</t>
-        </is>
-      </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-7-miejsc-suv-w-doskonalym-stanie-ID6Gnm35.html</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>2 998 cm3 • 350 KM • 7 miejsc SUV w doskonałym stanie!</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>62 000 km</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>Łomianki (Mazowieckie)</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>129 000</t>
         </is>
@@ -4241,40 +4631,45 @@
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
-      <c r="B3" s="1" t="n">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>129 000</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="n">
         <v>45470</v>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6InRzcW5vdWs0bGRyZzMtT1RPTU9UT1BMIn0.qzrm202gefFVMn_sJWhSESsycd64Jb3ipUa1XqLFa1k/image;s=320x240</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Ford Explorer</t>
-        </is>
-      </c>
       <c r="E3" t="inlineStr">
         <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-7-miejsc-suv-w-doskonalym-stanie-ID6Gnm35.html</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>2 998 cm3 • 350 KM • 7 miejsc SUV w doskonałym stanie!</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>62 000 km</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>Łomianki (Mazowieckie)</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>129 000</t>
         </is>
@@ -4282,40 +4677,45 @@
     </row>
     <row r="4">
       <c r="A4" t="inlineStr"/>
-      <c r="B4" s="1" t="n">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>129 000</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="n">
         <v>45473</v>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6InRzcW5vdWs0bGRyZzMtT1RPTU9UT1BMIn0.qzrm202gefFVMn_sJWhSESsycd64Jb3ipUa1XqLFa1k/image;s=320x240</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Ford Explorer</t>
-        </is>
-      </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-7-miejsc-suv-w-doskonalym-stanie-ID6Gnm35.html</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>2 998 cm3 • 350 KM • 7 miejsc SUV w doskonałym stanie!</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>62 000 km</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>Łomianki (Mazowieckie)</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>129 000</t>
         </is>
@@ -4323,58 +4723,67 @@
     </row>
     <row r="5">
       <c r="A5" t="inlineStr"/>
-      <c r="B5" s="1" t="n">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>129 000</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="n">
         <v>45481</v>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6InRzcW5vdWs0bGRyZzMtT1RPTU9UT1BMIn0.qzrm202gefFVMn_sJWhSESsycd64Jb3ipUa1XqLFa1k/image;s=320x240</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Ford Explorer</t>
-        </is>
-      </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-7-miejsc-suv-w-doskonalym-stanie-ID6Gnm35.html</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>2 998 cm3 • 350 KM • 7 miejsc SUV w doskonałym stanie!</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>62 000 km</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>Łomianki (Mazowieckie)</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>129 000</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
+    <tabColor rgb="00FF0000"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4382,15 +4791,16 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="6" customWidth="1" min="1" max="1"/>
-    <col width="14.4" customWidth="1" min="2" max="2"/>
-    <col width="177.6" customWidth="1" min="3" max="3"/>
-    <col width="18" customWidth="1" min="4" max="4"/>
-    <col width="128.4" customWidth="1" min="5" max="5"/>
-    <col width="74.39999999999999" customWidth="1" min="6" max="6"/>
-    <col width="13.2" customWidth="1" min="7" max="7"/>
-    <col width="32.4" customWidth="1" min="8" max="8"/>
-    <col width="10.8" customWidth="1" min="9" max="9"/>
+    <col width="57.14285714285715" customWidth="1" min="1" max="1"/>
+    <col width="10.8" customWidth="1" min="2" max="2"/>
+    <col width="14.4" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="18" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="74.39999999999999" customWidth="1" min="7" max="7"/>
+    <col width="13.2" customWidth="1" min="8" max="8"/>
+    <col width="32.4" customWidth="1" min="9" max="9"/>
+    <col width="10.8" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4401,40 +4811,45 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>price</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>thumbnail</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>description</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>location</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>mileage</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>price</t>
         </is>
@@ -4442,40 +4857,45 @@
     </row>
     <row r="2">
       <c r="A2" t="inlineStr"/>
-      <c r="B2" s="1" t="n">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>199 999</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="n">
         <v>45467</v>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6Ijd5cGJmbGh4MGc5dTMtT1RPTU9UT1BMIn0.7G02VyaW69bhqbtEmGMvC0v0GHR8Zch5iYhHaxbBM7w/image;s=320x240</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Ford Explorer</t>
-        </is>
-      </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-2020-ford-explorer-st-performance-400hp-ID6EY8WB.html</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>2 998 cm3 • 350 KM • 2020 Ford Explorer ST PERFORMANCE 400hp</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>21 240 km</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>Ełk (Warmińsko-mazurskie)</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>199 999</t>
         </is>
@@ -4483,40 +4903,45 @@
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
-      <c r="B3" s="1" t="n">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>199 999</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="n">
         <v>45470</v>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6Ijd5cGJmbGh4MGc5dTMtT1RPTU9UT1BMIn0.7G02VyaW69bhqbtEmGMvC0v0GHR8Zch5iYhHaxbBM7w/image;s=320x240</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Ford Explorer</t>
-        </is>
-      </c>
       <c r="E3" t="inlineStr">
         <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-2020-ford-explorer-st-performance-400hp-ID6EY8WB.html</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>2 998 cm3 • 350 KM • 2020 Ford Explorer ST PERFORMANCE 400hp</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>21 240 km</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>Ełk (Warmińsko-mazurskie)</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>199 999</t>
         </is>
@@ -4524,48 +4949,56 @@
     </row>
     <row r="4">
       <c r="A4" t="inlineStr"/>
-      <c r="B4" s="1" t="n">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>199 999</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="n">
         <v>45473</v>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6Ijd5cGJmbGh4MGc5dTMtT1RPTU9UT1BMIn0.7G02VyaW69bhqbtEmGMvC0v0GHR8Zch5iYhHaxbBM7w/image;s=320x240</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Ford Explorer</t>
-        </is>
-      </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-2020-ford-explorer-st-performance-400hp-ID6EY8WB.html</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>2 998 cm3 • 350 KM • 2020 Ford Explorer ST PERFORMANCE 400hp</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>21 240 km</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>Ełk (Warmińsko-mazurskie)</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>199 999</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4575,7 +5008,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4583,15 +5016,16 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="6" customWidth="1" min="1" max="1"/>
-    <col width="14.4" customWidth="1" min="2" max="2"/>
-    <col width="176.4" customWidth="1" min="3" max="3"/>
-    <col width="18" customWidth="1" min="4" max="4"/>
-    <col width="136.8" customWidth="1" min="5" max="5"/>
-    <col width="84" customWidth="1" min="6" max="6"/>
-    <col width="13.2" customWidth="1" min="7" max="7"/>
-    <col width="31.2" customWidth="1" min="8" max="8"/>
-    <col width="10.8" customWidth="1" min="9" max="9"/>
+    <col width="57.14285714285715" customWidth="1" min="1" max="1"/>
+    <col width="10.8" customWidth="1" min="2" max="2"/>
+    <col width="14.4" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="18" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="84" customWidth="1" min="7" max="7"/>
+    <col width="13.2" customWidth="1" min="8" max="8"/>
+    <col width="31.2" customWidth="1" min="9" max="9"/>
+    <col width="10.8" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4602,40 +5036,45 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>price</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>thumbnail</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>description</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>location</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>mileage</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>price</t>
         </is>
@@ -4643,40 +5082,45 @@
     </row>
     <row r="2">
       <c r="A2" t="inlineStr"/>
-      <c r="B2" s="1" t="n">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>134 900</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="n">
         <v>45467</v>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6IjdkcXQ2cXBwZzlkei1PVE9NT1RPUEwifQ.mEIE7RUBPA8UVuzk1savM5zAo7JrvTeJUDX7ZMJ3gN8/image;s=320x240</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Ford Explorer</t>
-        </is>
-      </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-maly-przebieg-jak-nowy-piekne-duze-auto-7-osob-ID6GwFMg.html</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>2 261 cm3 • 299 KM • Maly przebieg jak nowy, piekne duze auto 7 osob</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>32 000 km</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>Swarzędz (Wielkopolskie)</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>134 900</t>
         </is>
@@ -4684,40 +5128,45 @@
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
-      <c r="B3" s="1" t="n">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>134 900</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="n">
         <v>45470</v>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6IjdkcXQ2cXBwZzlkei1PVE9NT1RPUEwifQ.mEIE7RUBPA8UVuzk1savM5zAo7JrvTeJUDX7ZMJ3gN8/image;s=320x240</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Ford Explorer</t>
-        </is>
-      </c>
       <c r="E3" t="inlineStr">
         <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-maly-przebieg-jak-nowy-piekne-duze-auto-7-osob-ID6GwFMg.html</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>2 261 cm3 • 299 KM • Maly przebieg jak nowy, piekne duze auto 7 osob</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>32 000 km</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>Swarzędz (Wielkopolskie)</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>134 900</t>
         </is>
@@ -4725,40 +5174,45 @@
     </row>
     <row r="4">
       <c r="A4" t="inlineStr"/>
-      <c r="B4" s="1" t="n">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>134 900</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="n">
         <v>45473</v>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6IjdkcXQ2cXBwZzlkei1PVE9NT1RPUEwifQ.mEIE7RUBPA8UVuzk1savM5zAo7JrvTeJUDX7ZMJ3gN8/image;s=320x240</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Ford Explorer</t>
-        </is>
-      </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-maly-przebieg-jak-nowy-piekne-duze-auto-7-osob-ID6GwFMg.html</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>2 261 cm3 • 299 KM • Maly przebieg jak nowy, piekne duze auto 7 osob</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>32 000 km</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>Swarzędz (Wielkopolskie)</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>134 900</t>
         </is>
@@ -4766,48 +5220,56 @@
     </row>
     <row r="5">
       <c r="A5" t="inlineStr"/>
-      <c r="B5" s="1" t="n">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>134 900</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="n">
         <v>45481</v>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6IjdkcXQ2cXBwZzlkei1PVE9NT1RPUEwifQ.mEIE7RUBPA8UVuzk1savM5zAo7JrvTeJUDX7ZMJ3gN8/image;s=320x240</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Ford Explorer</t>
-        </is>
-      </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-maly-przebieg-jak-nowy-piekne-duze-auto-7-osob-ID6GwFMg.html</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>2 261 cm3 • 299 KM • Maly przebieg jak nowy, piekne duze auto 7 osob</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>32 000 km</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>Swarzędz (Wielkopolskie)</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>134 900</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4817,7 +5279,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4825,15 +5287,16 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="6" customWidth="1" min="1" max="1"/>
-    <col width="14.4" customWidth="1" min="2" max="2"/>
-    <col width="176.4" customWidth="1" min="3" max="3"/>
-    <col width="18" customWidth="1" min="4" max="4"/>
-    <col width="124.8" customWidth="1" min="5" max="5"/>
-    <col width="80.39999999999999" customWidth="1" min="6" max="6"/>
-    <col width="12" customWidth="1" min="7" max="7"/>
-    <col width="28.8" customWidth="1" min="8" max="8"/>
-    <col width="10.8" customWidth="1" min="9" max="9"/>
+    <col width="57.14285714285715" customWidth="1" min="1" max="1"/>
+    <col width="10.8" customWidth="1" min="2" max="2"/>
+    <col width="14.4" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="18" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="80.39999999999999" customWidth="1" min="7" max="7"/>
+    <col width="12" customWidth="1" min="8" max="8"/>
+    <col width="28.8" customWidth="1" min="9" max="9"/>
+    <col width="10.8" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4844,40 +5307,45 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>price</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>thumbnail</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>description</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>location</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>mileage</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>price</t>
         </is>
@@ -4885,40 +5353,45 @@
     </row>
     <row r="2">
       <c r="A2" t="inlineStr"/>
-      <c r="B2" s="1" t="n">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>156 900</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="n">
         <v>45467</v>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6IjAwNWc5a2E4NnVvMy1PVE9NT1RPUEwifQ.ujN1VW_P3vrWzMvsEcdIJ3EZSDNtoUTC2etsy6VNs34/image;s=320x240</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Ford Explorer</t>
-        </is>
-      </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-2-3t-300ps-zobacz-jak-nowy-ostrowek1-ID6FFCfy.html</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>2 261 cm3 • 300 KM • 2.3T 300Ps _ Zobacz _ Jak _ Nowy _ OSTROWEK1</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>5 700 km</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>Zduńska Wola (Łódzkie)</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>156 900</t>
         </is>
@@ -4926,40 +5399,45 @@
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
-      <c r="B3" s="1" t="n">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>156 900</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="n">
         <v>45470</v>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6IjAwNWc5a2E4NnVvMy1PVE9NT1RPUEwifQ.ujN1VW_P3vrWzMvsEcdIJ3EZSDNtoUTC2etsy6VNs34/image;s=320x240</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Ford Explorer</t>
-        </is>
-      </c>
       <c r="E3" t="inlineStr">
         <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-2-3t-300ps-zobacz-jak-nowy-ostrowek1-ID6FFCfy.html</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>2 261 cm3 • 300 KM • 2.3T 300Ps _ Zobacz _ Jak _ Nowy _ OSTROWEK1</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>5 700 km</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>Zduńska Wola (Łódzkie)</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>156 900</t>
         </is>
@@ -4967,40 +5445,45 @@
     </row>
     <row r="4">
       <c r="A4" t="inlineStr"/>
-      <c r="B4" s="1" t="n">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>156 900</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="n">
         <v>45473</v>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6IjAwNWc5a2E4NnVvMy1PVE9NT1RPUEwifQ.ujN1VW_P3vrWzMvsEcdIJ3EZSDNtoUTC2etsy6VNs34/image;s=320x240</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Ford Explorer</t>
-        </is>
-      </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-2-3t-300ps-zobacz-jak-nowy-ostrowek1-ID6FFCfy.html</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>2 261 cm3 • 300 KM • 2.3T 300Ps _ Zobacz _ Jak _ Nowy _ OSTROWEK1</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>5 700 km</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>Zduńska Wola (Łódzkie)</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>156 900</t>
         </is>
@@ -5008,48 +5491,56 @@
     </row>
     <row r="5">
       <c r="A5" t="inlineStr"/>
-      <c r="B5" s="1" t="n">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>156 900</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="n">
         <v>45481</v>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6IjAwNWc5a2E4NnVvMy1PVE9NT1RPUEwifQ.ujN1VW_P3vrWzMvsEcdIJ3EZSDNtoUTC2etsy6VNs34/image;s=320x240</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Ford Explorer</t>
-        </is>
-      </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-2-3t-300ps-zobacz-jak-nowy-ostrowek1-ID6FFCfy.html</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>2 261 cm3 • 300 KM • 2.3T 300Ps _ Zobacz _ Jak _ Nowy _ OSTROWEK1</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>5 700 km</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>Zduńska Wola (Łódzkie)</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>156 900</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5059,7 +5550,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5067,15 +5558,16 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="6" customWidth="1" min="1" max="1"/>
-    <col width="14.4" customWidth="1" min="2" max="2"/>
-    <col width="177.6" customWidth="1" min="3" max="3"/>
-    <col width="18" customWidth="1" min="4" max="4"/>
-    <col width="144" customWidth="1" min="5" max="5"/>
-    <col width="93.59999999999999" customWidth="1" min="6" max="6"/>
-    <col width="13.2" customWidth="1" min="7" max="7"/>
-    <col width="27.6" customWidth="1" min="8" max="8"/>
-    <col width="9.6" customWidth="1" min="9" max="9"/>
+    <col width="57.14285714285715" customWidth="1" min="1" max="1"/>
+    <col width="9.6" customWidth="1" min="2" max="2"/>
+    <col width="14.4" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="18" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="93.59999999999999" customWidth="1" min="7" max="7"/>
+    <col width="13.2" customWidth="1" min="8" max="8"/>
+    <col width="27.6" customWidth="1" min="9" max="9"/>
+    <col width="9.6" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5086,40 +5578,45 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>price</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>thumbnail</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>description</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>location</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>mileage</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>price</t>
         </is>
@@ -5127,40 +5624,45 @@
     </row>
     <row r="2">
       <c r="A2" t="inlineStr"/>
-      <c r="B2" s="1" t="n">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>73 000</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="n">
         <v>45467</v>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6Inoya2hvMWk0ejZpYTMtT1RPTU9UT1BMIn0.UpC40fxXGFAHtb_4eCpWI6jg9qAvM3wcz0qzhVaarlI/image;s=320x240</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Ford Explorer</t>
-        </is>
-      </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-2300cm-benzyna-przywieziony-z-ameryki-doskonaly-stan-ID6GpSqb.html</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>2 998 cm3 • 350 KM • 2300cm benzyna. Przywieziony z Ameryki. Doskonały stan.</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>75 000 km</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>Chylice (Mazowieckie)</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>73 000</t>
         </is>
@@ -5168,40 +5670,45 @@
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
-      <c r="B3" s="1" t="n">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>73 000</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="n">
         <v>45470</v>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6Inoya2hvMWk0ejZpYTMtT1RPTU9UT1BMIn0.UpC40fxXGFAHtb_4eCpWI6jg9qAvM3wcz0qzhVaarlI/image;s=320x240</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Ford Explorer</t>
-        </is>
-      </c>
       <c r="E3" t="inlineStr">
         <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-2300cm-benzyna-przywieziony-z-ameryki-doskonaly-stan-ID6GpSqb.html</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>2 998 cm3 • 350 KM • 2300cm benzyna. Przywieziony z Ameryki. Doskonały stan.</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>75 000 km</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>Chylice (Mazowieckie)</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>73 000</t>
         </is>
@@ -5209,47 +5716,55 @@
     </row>
     <row r="4">
       <c r="A4" t="inlineStr"/>
-      <c r="B4" s="1" t="n">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>73 000</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="n">
         <v>45473</v>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6Inoya2hvMWk0ejZpYTMtT1RPTU9UT1BMIn0.UpC40fxXGFAHtb_4eCpWI6jg9qAvM3wcz0qzhVaarlI/image;s=320x240</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Ford Explorer</t>
-        </is>
-      </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-2300cm-benzyna-przywieziony-z-ameryki-doskonaly-stan-ID6GpSqb.html</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>2 998 cm3 • 350 KM • 2300cm benzyna. Przywieziony z Ameryki. Doskonały stan.</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>75 000 km</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>Chylice (Mazowieckie)</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>73 000</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/report.xlsx
+++ b/report.xlsx
@@ -10,13 +10,13 @@
     <sheet name="1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="2" sheetId="2" state="hidden" r:id="rId2"/>
     <sheet name="3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="4" sheetId="4" state="hidden" r:id="rId4"/>
     <sheet name="5" sheetId="5" state="hidden" r:id="rId5"/>
     <sheet name="6" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="7" sheetId="7" state="hidden" r:id="rId7"/>
     <sheet name="8" sheetId="8" state="hidden" r:id="rId8"/>
     <sheet name="9" sheetId="9" state="hidden" r:id="rId9"/>
-    <sheet name="10" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="10" sheetId="10" state="hidden" r:id="rId10"/>
     <sheet name="11" sheetId="11" state="hidden" r:id="rId11"/>
     <sheet name="12" sheetId="12" state="hidden" r:id="rId12"/>
     <sheet name="13" sheetId="13" state="visible" r:id="rId13"/>
@@ -26,7 +26,7 @@
     <sheet name="17" sheetId="17" state="visible" r:id="rId17"/>
     <sheet name="18" sheetId="18" state="hidden" r:id="rId18"/>
     <sheet name="19" sheetId="19" state="hidden" r:id="rId19"/>
-    <sheet name="20" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="20" sheetId="20" state="hidden" r:id="rId20"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1036,7 +1036,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1292,6 +1292,52 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>215 000</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>45482</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6ImRjdnoxMnZsa2F5ZzMtT1RPTU9UT1BMIn0.sIg_SNvNihFgVFEvN28pWn0ZK3qFB_zRiZDBmE-xBFM/image;s=320x240</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-ford-explorer-st-pakiet-track-pack-2-kpl-opon-ID6Gxeuq.html</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2 998 cm3 • 363 KM • Ford Explorer ST pakiet Track Pack 2 kpl opon</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>45 000 km</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Kraków (Małopolskie)</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>215 000</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1"/>
@@ -1307,7 +1353,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1558,6 +1604,52 @@
         </is>
       </c>
       <c r="J5" t="inlineStr">
+        <is>
+          <t>76 500</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>76 500</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>45482</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6IjVlczBldzRoeTRxcDItT1RPTU9UT1BMIn0.FUSCEU9OzPZCSFVhX8v1SifU5h4jHOynDL6icpdXPBY/image;s=320x240</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-st-4x4-400hp-ID6GvgM5.html</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3 000 cm3 • 400 KM • ST 4x4 400HP</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>91 886 km</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Sękocin Nowy (Mazowieckie)</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
         <is>
           <t>76 500</t>
         </is>
@@ -1803,7 +1895,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2059,6 +2151,52 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>179 000</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>45482</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6InhpaTlmZHRuM3pnaTEtT1RPTU9UT1BMIn0.v7Cigz_30S8EUpauoMFxds-QylcqFlH3Ful-J8f35Nk/image;s=320x240</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-3-3-v6-hev-290km-limited-rwd-faktura-vat23-ID6Gku4R.html</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3 340 cm3 • 289 KM • 3.3 V6 HEV 290KM LIMITED RWD Faktura-VAT23%!</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>55 500 km</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Nowy Sącz (Małopolskie)</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>179 000</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1"/>
@@ -2071,7 +2209,7 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <tabColor rgb="00FF0000"/>
+    <tabColor rgb="00D3D3D3"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
@@ -2300,7 +2438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2556,6 +2694,52 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>196 800</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>45482</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6InJ2NHM3ejU1aWw5bTItT1RPTU9UT1BMIn0.6OwIgYYBt0Yd_2eKcBwj3QTQew1bziW-7sZZYUrmgtA/image;s=320x240</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-ID6GwYvH.html</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2 998 cm3 • 350 KM</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>76 000 km</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Mońki (Podlaskie)</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>196 800</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1"/>
@@ -2572,7 +2756,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2828,6 +3012,52 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>179 900</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>45482</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6InNicDAxb2tpM2VjaDItT1RPTU9UT1BMIn0.LoFAk0J0jqFhr5qGr3zwHr-FcP0lOQk5EiCsT27r5jY/image;s=320x240</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-3-0-400km-super-stan-biala-masaze-navi-4x4-ID6GvrtU.html</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2 998 cm3 • 400 KM • 3.0 400km super stan BIAŁA masaże Navi 4x4</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>99 706 km</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Aleksandrów Łódzki (Łódzkie)</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>179 900</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1"/>
@@ -2844,7 +3074,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3054,6 +3284,52 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>234 500</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>45482</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6InE1bzNoZm96N2FiaC1PVE9NT1RPUEwifQ.bBdZ_OYOLpezLtS4pSL7FElvvd8mGG8MMjgLll94GXg/image;s=320x240</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-ford-explorer-st-3-0-v6-400km-7-miejsc-ID6FPIy8.html</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2 998 cm3 • 400 KM • Ford Explorer ST 3.0 V6 400km 7-miejsc</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>24 500 km</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Białystok (Podlaskie)</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>234 500</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1"/>
@@ -3070,7 +3346,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3280,6 +3556,52 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>210 000</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>45482</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6InA0dGVyeTF0d2JkMTEtT1RPTU9UT1BMIn0.GnhoXrNkQmO-w81vNCwO39kCr2ypNWwAXUTFqh7idFk/image;s=320x240</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-ford-explorer-st-ID6GazcR.html</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2 998 cm3 • 404 KM • Ford Explorer ST</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>29 818 km</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Nawojowa Góra (Małopolskie)</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>210 000</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1"/>
@@ -3292,11 +3614,10 @@
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <tabColor rgb="00FFA500"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3414,6 +3735,52 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>159 500</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>45482</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6InEzejQxNHpsc2tsejItT1RPTU9UT1BMIn0.79AyrXRI4L564ZFfFSZD4n-PUNyVnFN4yBazBqzvryY/image;s=320x240</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-2020-4x4-2-3-ecoboost-303-km-ID6FBW60.html</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2 300 cm3 • 303 KM • 2020 4x4 2.3 Ecoboost 303 KM</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>31 600 km</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Świebodzin (Lubuskie)</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>159 500</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1"/>
@@ -3426,11 +3793,10 @@
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <tabColor rgb="00FFA500"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3548,6 +3914,52 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>127 000</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>45482</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6ImEzNDJwZHVyZ3h1YjEtT1RPTU9UT1BMIn0.-LylBsY2COZGGKX0JeribumyVgSZjyVIGTPTZwMTLIE/image;s=320x240</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-ford-explorer-2020-pojemnosc-2-3l-4x4-ID6GuyVP.html</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2 998 cm3 • 350 KM • Ford Explorer 2020 Pojemność 2.3l, 4x4</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>85 324 km</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Boguchwała (Podkarpackie)</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>127 000</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1"/>
@@ -3563,7 +3975,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3819,6 +4231,52 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>145 000</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>45482</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6IjRxZGNtYjZ6eGdvcDMtT1RPTU9UT1BMIn0.uPu5BXmQ8-pCiGsdIfFyAtc-toUNP1V0616q-mLT1y4/image;s=320x240</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-ford-explorer-xlt-2-3-ecoboost-303km-2020-ID6GsaaA.html</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2 998 cm3 • 350 KM • Ford Explorer XLT 2.3 ecoboost 303KM - 2020</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>72 800 km</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Budzyń (Wielkopolskie)</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>145 000</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1"/>
@@ -3831,11 +4289,10 @@
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <tabColor rgb="00FFA500"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3953,6 +4410,52 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>99 900</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>45482</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6InBxYzVvaGlwYXd6dDEtT1RPTU9UT1BMIn0._wdFRBs-bNfdwlZZ1uu61ydXewAvapMs7hQF91CGWmw/image;s=320x240</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-st-fv23-leasing-ID6GzGhZ.html</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2 998 cm3 • 350 KM • ST FV23% Leasing!</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>44 743 km</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Gaj (Małopolskie)</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>99 900</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1"/>
@@ -3969,7 +4472,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4225,6 +4728,52 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>219 000</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>45482</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6IjU2c3ZzdzJybWxqai1PVE9NT1RPUEwifQ.XwEJ4bLBSbTtfyuOIIsumOO6N3k_SDUqHhLwX1EKO2c/image;s=320x240</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-ford-explorer-st-400km-ID6GqSpp.html</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2 956 cm3 • 400 KM • Ford Explorer ST 400KM</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>82 000 km</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Konstancin-Jeziorna (Mazowieckie)</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>219 000</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1"/>
@@ -4240,7 +4789,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4496,6 +5045,52 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>72 950</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>45482</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6IjRrbnljZWhyYzQ5bjMtT1RPTU9UT1BMIn0.v65qq_pSzj0-VFJnVCNPwhTYP7eYGKvpR1DnE3j9i9U/image;s=320x240</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Ford Explorer 3.0 EcoBoost PHEV 4WD ST-Line</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-niski-przebieg-piekny-srodek-awd-400-hp-ID6GvEeE.html</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2 998 cm3 • 350 KM • Niski Przebieg,Piękny Środek AWD 400 hp</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>65 597 km</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Węgrów (Mazowieckie)</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>72 950</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1"/>
@@ -4511,7 +5106,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4767,6 +5362,52 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>129 000</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>45482</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6InRzcW5vdWs0bGRyZzMtT1RPTU9UT1BMIn0.qzrm202gefFVMn_sJWhSESsycd64Jb3ipUa1XqLFa1k/image;s=320x240</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-7-miejsc-suv-w-doskonalym-stanie-ID6Gnm35.html</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2 998 cm3 • 350 KM • 7 miejsc SUV w doskonałym stanie!</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>62 000 km</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Łomianki (Mazowieckie)</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>129 000</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1"/>
@@ -4779,7 +5420,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <tabColor rgb="00FF0000"/>
+    <tabColor rgb="00D3D3D3"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
@@ -5008,7 +5649,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5264,6 +5905,52 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>134 000</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>45482</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6IjdkcXQ2cXBwZzlkei1PVE9NT1RPUEwifQ.mEIE7RUBPA8UVuzk1savM5zAo7JrvTeJUDX7ZMJ3gN8/image;s=320x240</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-maly-przebieg-jak-nowy-piekne-duze-auto-7-osob-ID6GwFMg.html</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2 261 cm3 • 299 KM • Maly przebieg jak nowy, piekne duze auto 7 osob</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>32 000 km</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Swarzędz (Wielkopolskie)</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>134 000</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1"/>
@@ -5279,7 +5966,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5530,6 +6217,52 @@
         </is>
       </c>
       <c r="J5" t="inlineStr">
+        <is>
+          <t>156 900</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>156 900</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>45482</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6IjAwNWc5a2E4NnVvMy1PVE9NT1RPUEwifQ.ujN1VW_P3vrWzMvsEcdIJ3EZSDNtoUTC2etsy6VNs34/image;s=320x240</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-2-3t-300ps-zobacz-jak-nowy-ostrowek1-ID6FFCfy.html</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2 261 cm3 • 300 KM • 2.3T 300Ps _ Zobacz _ Jak _ Nowy _ OSTROWEK1</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>5 700 km</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Zduńska Wola (Łódzkie)</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
         <is>
           <t>156 900</t>
         </is>

--- a/report.xlsx
+++ b/report.xlsx
@@ -27,6 +27,7 @@
     <sheet name="18" sheetId="18" state="hidden" r:id="rId18"/>
     <sheet name="19" sheetId="19" state="hidden" r:id="rId19"/>
     <sheet name="20" sheetId="20" state="hidden" r:id="rId20"/>
+    <sheet name="21" sheetId="21" state="visible" r:id="rId21"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -516,6 +517,36 @@
       <rowOff>0</rowOff>
     </from>
     <ext cx="3810000" cy="2857500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing21.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>1</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="3800475" cy="2857500"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -1036,7 +1067,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1051,7 +1082,7 @@
     <col width="18" customWidth="1" min="5" max="5"/>
     <col width="20" customWidth="1" min="6" max="6"/>
     <col width="81.59999999999999" customWidth="1" min="7" max="7"/>
-    <col width="13.2" customWidth="1" min="8" max="8"/>
+    <col width="26.4" customWidth="1" min="8" max="8"/>
     <col width="26.4" customWidth="1" min="9" max="9"/>
     <col width="10.8" customWidth="1" min="10" max="10"/>
   </cols>
@@ -1333,6 +1364,52 @@
         </is>
       </c>
       <c r="J6" t="inlineStr">
+        <is>
+          <t>215 000</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>215 000</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>45484</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6ImRjdnoxMnZsa2F5ZzMtT1RPTU9UT1BMIn0.sIg_SNvNihFgVFEvN28pWn0ZK3qFB_zRiZDBmE-xBFM/image;s=320x240</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-ford-explorer-st-pakiet-track-pack-2-kpl-opon-ID6Gxeuq.html</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2 998 cm3 • 363 KM • Ford Explorer ST pakiet Track Pack 2 kpl opon</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Kraków (Małopolskie)</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>45 000 km</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
         <is>
           <t>215 000</t>
         </is>
@@ -1353,7 +1430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1368,7 +1445,7 @@
     <col width="18" customWidth="1" min="5" max="5"/>
     <col width="20" customWidth="1" min="6" max="6"/>
     <col width="42" customWidth="1" min="7" max="7"/>
-    <col width="13.2" customWidth="1" min="8" max="8"/>
+    <col width="33.6" customWidth="1" min="8" max="8"/>
     <col width="33.6" customWidth="1" min="9" max="9"/>
     <col width="9.6" customWidth="1" min="10" max="10"/>
   </cols>
@@ -1650,6 +1727,52 @@
         </is>
       </c>
       <c r="J6" t="inlineStr">
+        <is>
+          <t>76 500</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>76 500</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>45484</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6IjVlczBldzRoeTRxcDItT1RPTU9UT1BMIn0.FUSCEU9OzPZCSFVhX8v1SifU5h4jHOynDL6icpdXPBY/image;s=320x240</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-st-4x4-400hp-ID6GvgM5.html</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3 000 cm3 • 400 KM • ST 4x4 400HP</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Sękocin Nowy (Mazowieckie)</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>91 886 km</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
         <is>
           <t>76 500</t>
         </is>
@@ -2438,7 +2561,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2453,7 +2576,7 @@
     <col width="18" customWidth="1" min="5" max="5"/>
     <col width="20" customWidth="1" min="6" max="6"/>
     <col width="24" customWidth="1" min="7" max="7"/>
-    <col width="13.2" customWidth="1" min="8" max="8"/>
+    <col width="22.8" customWidth="1" min="8" max="8"/>
     <col width="22.8" customWidth="1" min="9" max="9"/>
     <col width="10.8" customWidth="1" min="10" max="10"/>
   </cols>
@@ -2735,6 +2858,52 @@
         </is>
       </c>
       <c r="J6" t="inlineStr">
+        <is>
+          <t>196 800</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>196 800</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>45484</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6InJ2NHM3ejU1aWw5bTItT1RPTU9UT1BMIn0.6OwIgYYBt0Yd_2eKcBwj3QTQew1bziW-7sZZYUrmgtA/image;s=320x240</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-ID6GwYvH.html</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2 998 cm3 • 350 KM</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Mońki (Podlaskie)</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>76 000 km</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
         <is>
           <t>196 800</t>
         </is>
@@ -2750,6 +2919,370 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <tabColor rgb="0000FF00"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="57.14285714285715" customWidth="1" min="1" max="1"/>
+    <col width="10.8" customWidth="1" min="2" max="2"/>
+    <col width="14.4" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="18" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="78" customWidth="1" min="7" max="7"/>
+    <col width="36" customWidth="1" min="8" max="8"/>
+    <col width="36" customWidth="1" min="9" max="9"/>
+    <col width="10.8" customWidth="1" min="10" max="10"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>img</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>price</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>thumbnail</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>url</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>location</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>mileage</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>price</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>189 900</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>45467</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6InNicDAxb2tpM2VjaDItT1RPTU9UT1BMIn0.LoFAk0J0jqFhr5qGr3zwHr-FcP0lOQk5EiCsT27r5jY/image;s=320x240</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-3-0-400km-super-stan-biala-masaze-navi-4x4-ID6GvrtU.html</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2 998 cm3 • 400 KM • 3.0 400km super stan BIAŁA masaże Navi 4x4</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>99 706 km</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Aleksandrów Łódzki (Łódzkie)</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>189 900</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>189 900</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>45470</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6InNicDAxb2tpM2VjaDItT1RPTU9UT1BMIn0.LoFAk0J0jqFhr5qGr3zwHr-FcP0lOQk5EiCsT27r5jY/image;s=320x240</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-3-0-400km-super-stan-biala-masaze-navi-4x4-ID6GvrtU.html</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2 998 cm3 • 400 KM • 3.0 400km super stan BIAŁA masaże Navi 4x4</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>99 706 km</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Aleksandrów Łódzki (Łódzkie)</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>189 900</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>189 900</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>45473</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6InNicDAxb2tpM2VjaDItT1RPTU9UT1BMIn0.LoFAk0J0jqFhr5qGr3zwHr-FcP0lOQk5EiCsT27r5jY/image;s=320x240</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-3-0-400km-super-stan-biala-masaze-navi-4x4-ID6GvrtU.html</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2 998 cm3 • 400 KM • 3.0 400km super stan BIAŁA masaże Navi 4x4</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>99 706 km</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Aleksandrów Łódzki (Łódzkie)</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>189 900</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>179 900</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>45481</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6InNicDAxb2tpM2VjaDItT1RPTU9UT1BMIn0.LoFAk0J0jqFhr5qGr3zwHr-FcP0lOQk5EiCsT27r5jY/image;s=320x240</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-3-0-400km-super-stan-biala-masaze-navi-4x4-ID6GvrtU.html</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2 998 cm3 • 400 KM • 3.0 400km super stan BIAŁA masaże Navi 4x4</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>99 706 km</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Aleksandrów Łódzki (Łódzkie)</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>179 900</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>179 900</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>45482</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6InNicDAxb2tpM2VjaDItT1RPTU9UT1BMIn0.LoFAk0J0jqFhr5qGr3zwHr-FcP0lOQk5EiCsT27r5jY/image;s=320x240</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-3-0-400km-super-stan-biala-masaze-navi-4x4-ID6GvrtU.html</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2 998 cm3 • 400 KM • 3.0 400km super stan BIAŁA masaże Navi 4x4</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>99 706 km</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Aleksandrów Łódzki (Łódzkie)</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>179 900</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>179 900</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>45484</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6InNicDAxb2tpM2VjaDItT1RPTU9UT1BMIn0.LoFAk0J0jqFhr5qGr3zwHr-FcP0lOQk5EiCsT27r5jY/image;s=320x240</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-3-0-400km-super-stan-biala-masaze-navi-4x4-ID6GvrtU.html</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2 998 cm3 • 400 KM • 3.0 400km super stan BIAŁA masaże Navi 4x4</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Aleksandrów Łódzki (Łódzkie)</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>99 706 km</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>179 900</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <tabColor rgb="0000FF00"/>
@@ -2770,326 +3303,8 @@
     <col width="20" customWidth="1" min="4" max="4"/>
     <col width="18" customWidth="1" min="5" max="5"/>
     <col width="20" customWidth="1" min="6" max="6"/>
-    <col width="78" customWidth="1" min="7" max="7"/>
-    <col width="13.2" customWidth="1" min="8" max="8"/>
-    <col width="36" customWidth="1" min="9" max="9"/>
-    <col width="10.8" customWidth="1" min="10" max="10"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>img</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>price</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>thumbnail</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>url</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>location</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>mileage</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>price</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>189 900</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="n">
-        <v>45467</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6InNicDAxb2tpM2VjaDItT1RPTU9UT1BMIn0.LoFAk0J0jqFhr5qGr3zwHr-FcP0lOQk5EiCsT27r5jY/image;s=320x240</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Ford Explorer</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-3-0-400km-super-stan-biala-masaze-navi-4x4-ID6GvrtU.html</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2 998 cm3 • 400 KM • 3.0 400km super stan BIAŁA masaże Navi 4x4</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>99 706 km</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Aleksandrów Łódzki (Łódzkie)</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>189 900</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>189 900</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>45470</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6InNicDAxb2tpM2VjaDItT1RPTU9UT1BMIn0.LoFAk0J0jqFhr5qGr3zwHr-FcP0lOQk5EiCsT27r5jY/image;s=320x240</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Ford Explorer</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-3-0-400km-super-stan-biala-masaze-navi-4x4-ID6GvrtU.html</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2 998 cm3 • 400 KM • 3.0 400km super stan BIAŁA masaże Navi 4x4</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>99 706 km</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Aleksandrów Łódzki (Łódzkie)</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>189 900</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>189 900</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>45473</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6InNicDAxb2tpM2VjaDItT1RPTU9UT1BMIn0.LoFAk0J0jqFhr5qGr3zwHr-FcP0lOQk5EiCsT27r5jY/image;s=320x240</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Ford Explorer</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-3-0-400km-super-stan-biala-masaze-navi-4x4-ID6GvrtU.html</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>2 998 cm3 • 400 KM • 3.0 400km super stan BIAŁA masaże Navi 4x4</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>99 706 km</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Aleksandrów Łódzki (Łódzkie)</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>189 900</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>179 900</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>45481</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6InNicDAxb2tpM2VjaDItT1RPTU9UT1BMIn0.LoFAk0J0jqFhr5qGr3zwHr-FcP0lOQk5EiCsT27r5jY/image;s=320x240</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Ford Explorer</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-3-0-400km-super-stan-biala-masaze-navi-4x4-ID6GvrtU.html</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>2 998 cm3 • 400 KM • 3.0 400km super stan BIAŁA masaże Navi 4x4</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>99 706 km</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Aleksandrów Łódzki (Łódzkie)</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>179 900</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr"/>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>179 900</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>45482</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6InNicDAxb2tpM2VjaDItT1RPTU9UT1BMIn0.LoFAk0J0jqFhr5qGr3zwHr-FcP0lOQk5EiCsT27r5jY/image;s=320x240</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Ford Explorer</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-3-0-400km-super-stan-biala-masaze-navi-4x4-ID6GvrtU.html</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>2 998 cm3 • 400 KM • 3.0 400km super stan BIAŁA masaże Navi 4x4</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>99 706 km</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Aleksandrów Łódzki (Łódzkie)</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>179 900</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <tabColor rgb="0000FF00"/>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="57.14285714285715" customWidth="1" min="1" max="1"/>
-    <col width="10.8" customWidth="1" min="2" max="2"/>
-    <col width="14.4" customWidth="1" min="3" max="3"/>
-    <col width="20" customWidth="1" min="4" max="4"/>
-    <col width="18" customWidth="1" min="5" max="5"/>
-    <col width="20" customWidth="1" min="6" max="6"/>
     <col width="73.2" customWidth="1" min="7" max="7"/>
-    <col width="13.2" customWidth="1" min="8" max="8"/>
+    <col width="27.6" customWidth="1" min="8" max="8"/>
     <col width="27.6" customWidth="1" min="9" max="9"/>
     <col width="10.8" customWidth="1" min="10" max="10"/>
   </cols>
@@ -3325,6 +3540,52 @@
         </is>
       </c>
       <c r="J5" t="inlineStr">
+        <is>
+          <t>234 500</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>234 500</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>45484</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6InE1bzNoZm96N2FiaC1PVE9NT1RPUEwifQ.bBdZ_OYOLpezLtS4pSL7FElvvd8mGG8MMjgLll94GXg/image;s=320x240</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-ford-explorer-st-3-0-v6-400km-7-miejsc-ID6FPIy8.html</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2 998 cm3 • 400 KM • Ford Explorer ST 3.0 V6 400km 7-miejsc</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Białystok (Podlaskie)</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>24 500 km</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
         <is>
           <t>234 500</t>
         </is>
@@ -3340,1132 +3601,6 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <tabColor rgb="0000FF00"/>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="57.14285714285715" customWidth="1" min="1" max="1"/>
-    <col width="10.8" customWidth="1" min="2" max="2"/>
-    <col width="14.4" customWidth="1" min="3" max="3"/>
-    <col width="20" customWidth="1" min="4" max="4"/>
-    <col width="18" customWidth="1" min="5" max="5"/>
-    <col width="20" customWidth="1" min="6" max="6"/>
-    <col width="46.8" customWidth="1" min="7" max="7"/>
-    <col width="13.2" customWidth="1" min="8" max="8"/>
-    <col width="34.8" customWidth="1" min="9" max="9"/>
-    <col width="10.8" customWidth="1" min="10" max="10"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>img</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>price</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>thumbnail</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>url</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>location</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>mileage</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>price</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>210 000</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="n">
-        <v>45470</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6InA0dGVyeTF0d2JkMTEtT1RPTU9UT1BMIn0.GnhoXrNkQmO-w81vNCwO39kCr2ypNWwAXUTFqh7idFk/image;s=320x240</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Ford Explorer</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-ford-explorer-st-ID6GazcR.html</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2 998 cm3 • 404 KM • Ford Explorer ST</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>29 818 km</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Nawojowa Góra (Małopolskie)</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>210 000</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>210 000</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>45473</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6InA0dGVyeTF0d2JkMTEtT1RPTU9UT1BMIn0.GnhoXrNkQmO-w81vNCwO39kCr2ypNWwAXUTFqh7idFk/image;s=320x240</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Ford Explorer</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-ford-explorer-st-ID6GazcR.html</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2 998 cm3 • 404 KM • Ford Explorer ST</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>29 818 km</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Nawojowa Góra (Małopolskie)</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>210 000</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>210 000</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>45481</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6InA0dGVyeTF0d2JkMTEtT1RPTU9UT1BMIn0.GnhoXrNkQmO-w81vNCwO39kCr2ypNWwAXUTFqh7idFk/image;s=320x240</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Ford Explorer</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-ford-explorer-st-ID6GazcR.html</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>2 998 cm3 • 404 KM • Ford Explorer ST</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>29 818 km</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Nawojowa Góra (Małopolskie)</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>210 000</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>210 000</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>45482</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6InA0dGVyeTF0d2JkMTEtT1RPTU9UT1BMIn0.GnhoXrNkQmO-w81vNCwO39kCr2ypNWwAXUTFqh7idFk/image;s=320x240</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Ford Explorer</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-ford-explorer-st-ID6GazcR.html</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>2 998 cm3 • 404 KM • Ford Explorer ST</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>29 818 km</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Nawojowa Góra (Małopolskie)</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>210 000</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="57.14285714285715" customWidth="1" min="1" max="1"/>
-    <col width="10.8" customWidth="1" min="2" max="2"/>
-    <col width="14.4" customWidth="1" min="3" max="3"/>
-    <col width="20" customWidth="1" min="4" max="4"/>
-    <col width="18" customWidth="1" min="5" max="5"/>
-    <col width="20" customWidth="1" min="6" max="6"/>
-    <col width="61.2" customWidth="1" min="7" max="7"/>
-    <col width="13.2" customWidth="1" min="8" max="8"/>
-    <col width="27.6" customWidth="1" min="9" max="9"/>
-    <col width="10.8" customWidth="1" min="10" max="10"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>img</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>price</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>thumbnail</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>url</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>location</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>mileage</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>price</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>159 500</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="n">
-        <v>45481</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6InEzejQxNHpsc2tsejItT1RPTU9UT1BMIn0.79AyrXRI4L564ZFfFSZD4n-PUNyVnFN4yBazBqzvryY/image;s=320x240</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Ford Explorer</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-2020-4x4-2-3-ecoboost-303-km-ID6FBW60.html</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2 300 cm3 • 303 KM • 2020 4x4 2.3 Ecoboost 303 KM</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>31 600 km</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Świebodzin (Lubuskie)</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>159 500</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>159 500</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>45482</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6InEzejQxNHpsc2tsejItT1RPTU9UT1BMIn0.79AyrXRI4L564ZFfFSZD4n-PUNyVnFN4yBazBqzvryY/image;s=320x240</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Ford Explorer</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-2020-4x4-2-3-ecoboost-303-km-ID6FBW60.html</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2 300 cm3 • 303 KM • 2020 4x4 2.3 Ecoboost 303 KM</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>31 600 km</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Świebodzin (Lubuskie)</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>159 500</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="57.14285714285715" customWidth="1" min="1" max="1"/>
-    <col width="10.8" customWidth="1" min="2" max="2"/>
-    <col width="14.4" customWidth="1" min="3" max="3"/>
-    <col width="20" customWidth="1" min="4" max="4"/>
-    <col width="18" customWidth="1" min="5" max="5"/>
-    <col width="20" customWidth="1" min="6" max="6"/>
-    <col width="73.2" customWidth="1" min="7" max="7"/>
-    <col width="13.2" customWidth="1" min="8" max="8"/>
-    <col width="32.4" customWidth="1" min="9" max="9"/>
-    <col width="10.8" customWidth="1" min="10" max="10"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>img</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>price</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>thumbnail</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>url</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>location</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>mileage</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>price</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>127 000</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="n">
-        <v>45481</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6ImEzNDJwZHVyZ3h1YjEtT1RPTU9UT1BMIn0.-LylBsY2COZGGKX0JeribumyVgSZjyVIGTPTZwMTLIE/image;s=320x240</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Ford Explorer</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-ford-explorer-2020-pojemnosc-2-3l-4x4-ID6GuyVP.html</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2 998 cm3 • 350 KM • Ford Explorer 2020 Pojemność 2.3l, 4x4</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>85 324 km</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Boguchwała (Podkarpackie)</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>127 000</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>127 000</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>45482</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6ImEzNDJwZHVyZ3h1YjEtT1RPTU9UT1BMIn0.-LylBsY2COZGGKX0JeribumyVgSZjyVIGTPTZwMTLIE/image;s=320x240</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Ford Explorer</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-ford-explorer-2020-pojemnosc-2-3l-4x4-ID6GuyVP.html</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2 998 cm3 • 350 KM • Ford Explorer 2020 Pojemność 2.3l, 4x4</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>85 324 km</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Boguchwała (Podkarpackie)</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>127 000</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="57.14285714285715" customWidth="1" min="1" max="1"/>
-    <col width="10.8" customWidth="1" min="2" max="2"/>
-    <col width="14.4" customWidth="1" min="3" max="3"/>
-    <col width="20" customWidth="1" min="4" max="4"/>
-    <col width="18" customWidth="1" min="5" max="5"/>
-    <col width="20" customWidth="1" min="6" max="6"/>
-    <col width="79.2" customWidth="1" min="7" max="7"/>
-    <col width="13.2" customWidth="1" min="8" max="8"/>
-    <col width="28.8" customWidth="1" min="9" max="9"/>
-    <col width="10.8" customWidth="1" min="10" max="10"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>img</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>price</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>thumbnail</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>url</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>location</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>mileage</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>price</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>155 000</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="n">
-        <v>45467</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6IjRxZGNtYjZ6eGdvcDMtT1RPTU9UT1BMIn0.uPu5BXmQ8-pCiGsdIfFyAtc-toUNP1V0616q-mLT1y4/image;s=320x240</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Ford Explorer</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-ford-explorer-xlt-2-3-ecoboost-303km-2020-ID6GsaaA.html</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2 998 cm3 • 350 KM • Ford Explorer XLT 2.3 ecoboost 303KM - 2020</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>72 800 km</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Budzyń (Wielkopolskie)</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>155 000</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>153 500</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>45470</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6IjRxZGNtYjZ6eGdvcDMtT1RPTU9UT1BMIn0.uPu5BXmQ8-pCiGsdIfFyAtc-toUNP1V0616q-mLT1y4/image;s=320x240</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Ford Explorer</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-ford-explorer-xlt-2-3-ecoboost-303km-2020-ID6GsaaA.html</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2 998 cm3 • 350 KM • Ford Explorer XLT 2.3 ecoboost 303KM - 2020</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>72 800 km</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Budzyń (Wielkopolskie)</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>153 500</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>153 500</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>45473</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6IjRxZGNtYjZ6eGdvcDMtT1RPTU9UT1BMIn0.uPu5BXmQ8-pCiGsdIfFyAtc-toUNP1V0616q-mLT1y4/image;s=320x240</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Ford Explorer</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-ford-explorer-xlt-2-3-ecoboost-303km-2020-ID6GsaaA.html</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>2 998 cm3 • 350 KM • Ford Explorer XLT 2.3 ecoboost 303KM - 2020</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>72 800 km</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Budzyń (Wielkopolskie)</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>153 500</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>148 500</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>45481</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6IjRxZGNtYjZ6eGdvcDMtT1RPTU9UT1BMIn0.uPu5BXmQ8-pCiGsdIfFyAtc-toUNP1V0616q-mLT1y4/image;s=320x240</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Ford Explorer</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-ford-explorer-xlt-2-3-ecoboost-303km-2020-ID6GsaaA.html</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>2 998 cm3 • 350 KM • Ford Explorer XLT 2.3 ecoboost 303KM - 2020</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>72 800 km</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Budzyń (Wielkopolskie)</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>148 500</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr"/>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>145 000</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>45482</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6IjRxZGNtYjZ6eGdvcDMtT1RPTU9UT1BMIn0.uPu5BXmQ8-pCiGsdIfFyAtc-toUNP1V0616q-mLT1y4/image;s=320x240</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Ford Explorer</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-ford-explorer-xlt-2-3-ecoboost-303km-2020-ID6GsaaA.html</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>2 998 cm3 • 350 KM • Ford Explorer XLT 2.3 ecoboost 303KM - 2020</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>72 800 km</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Budzyń (Wielkopolskie)</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>145 000</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="57.14285714285715" customWidth="1" min="1" max="1"/>
-    <col width="9.6" customWidth="1" min="2" max="2"/>
-    <col width="14.4" customWidth="1" min="3" max="3"/>
-    <col width="20" customWidth="1" min="4" max="4"/>
-    <col width="18" customWidth="1" min="5" max="5"/>
-    <col width="20" customWidth="1" min="6" max="6"/>
-    <col width="48" customWidth="1" min="7" max="7"/>
-    <col width="13.2" customWidth="1" min="8" max="8"/>
-    <col width="22.8" customWidth="1" min="9" max="9"/>
-    <col width="9.6" customWidth="1" min="10" max="10"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>img</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>price</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>thumbnail</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>url</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>location</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>mileage</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>price</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>99 900</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="n">
-        <v>45481</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6InBxYzVvaGlwYXd6dDEtT1RPTU9UT1BMIn0._wdFRBs-bNfdwlZZ1uu61ydXewAvapMs7hQF91CGWmw/image;s=320x240</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Ford Explorer</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-st-fv23-leasing-ID6GzGhZ.html</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2 998 cm3 • 350 KM • ST FV23% Leasing!</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>44 743 km</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Gaj (Małopolskie)</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>99 900</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>99 900</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>45482</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6InBxYzVvaGlwYXd6dDEtT1RPTU9UT1BMIn0._wdFRBs-bNfdwlZZ1uu61ydXewAvapMs7hQF91CGWmw/image;s=320x240</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Ford Explorer</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-st-fv23-leasing-ID6GzGhZ.html</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2 998 cm3 • 350 KM • ST FV23% Leasing!</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>44 743 km</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Gaj (Małopolskie)</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>99 900</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <tabColor rgb="0000FF00"/>
@@ -4486,8 +3621,1498 @@
     <col width="20" customWidth="1" min="4" max="4"/>
     <col width="18" customWidth="1" min="5" max="5"/>
     <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="46.8" customWidth="1" min="7" max="7"/>
+    <col width="34.8" customWidth="1" min="8" max="8"/>
+    <col width="34.8" customWidth="1" min="9" max="9"/>
+    <col width="10.8" customWidth="1" min="10" max="10"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>img</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>price</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>thumbnail</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>url</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>location</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>mileage</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>price</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>210 000</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>45470</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6InA0dGVyeTF0d2JkMTEtT1RPTU9UT1BMIn0.GnhoXrNkQmO-w81vNCwO39kCr2ypNWwAXUTFqh7idFk/image;s=320x240</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-ford-explorer-st-ID6GazcR.html</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2 998 cm3 • 404 KM • Ford Explorer ST</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>29 818 km</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Nawojowa Góra (Małopolskie)</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>210 000</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>210 000</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>45473</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6InA0dGVyeTF0d2JkMTEtT1RPTU9UT1BMIn0.GnhoXrNkQmO-w81vNCwO39kCr2ypNWwAXUTFqh7idFk/image;s=320x240</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-ford-explorer-st-ID6GazcR.html</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2 998 cm3 • 404 KM • Ford Explorer ST</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>29 818 km</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Nawojowa Góra (Małopolskie)</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>210 000</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>210 000</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>45481</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6InA0dGVyeTF0d2JkMTEtT1RPTU9UT1BMIn0.GnhoXrNkQmO-w81vNCwO39kCr2ypNWwAXUTFqh7idFk/image;s=320x240</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-ford-explorer-st-ID6GazcR.html</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2 998 cm3 • 404 KM • Ford Explorer ST</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>29 818 km</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Nawojowa Góra (Małopolskie)</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>210 000</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>210 000</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>45482</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6InA0dGVyeTF0d2JkMTEtT1RPTU9UT1BMIn0.GnhoXrNkQmO-w81vNCwO39kCr2ypNWwAXUTFqh7idFk/image;s=320x240</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-ford-explorer-st-ID6GazcR.html</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2 998 cm3 • 404 KM • Ford Explorer ST</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>29 818 km</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Nawojowa Góra (Małopolskie)</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>210 000</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>210 000</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>45484</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6InA0dGVyeTF0d2JkMTEtT1RPTU9UT1BMIn0.GnhoXrNkQmO-w81vNCwO39kCr2ypNWwAXUTFqh7idFk/image;s=320x240</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-ford-explorer-st-ID6GazcR.html</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2 998 cm3 • 404 KM • Ford Explorer ST</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Nawojowa Góra (Małopolskie)</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>29 818 km</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>210 000</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="57.14285714285715" customWidth="1" min="1" max="1"/>
+    <col width="10.8" customWidth="1" min="2" max="2"/>
+    <col width="14.4" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="18" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="61.2" customWidth="1" min="7" max="7"/>
+    <col width="27.6" customWidth="1" min="8" max="8"/>
+    <col width="27.6" customWidth="1" min="9" max="9"/>
+    <col width="10.8" customWidth="1" min="10" max="10"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>img</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>price</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>thumbnail</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>url</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>location</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>mileage</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>price</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>159 500</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>45481</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6InEzejQxNHpsc2tsejItT1RPTU9UT1BMIn0.79AyrXRI4L564ZFfFSZD4n-PUNyVnFN4yBazBqzvryY/image;s=320x240</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-2020-4x4-2-3-ecoboost-303-km-ID6FBW60.html</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2 300 cm3 • 303 KM • 2020 4x4 2.3 Ecoboost 303 KM</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>31 600 km</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Świebodzin (Lubuskie)</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>159 500</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>159 500</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>45482</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6InEzejQxNHpsc2tsejItT1RPTU9UT1BMIn0.79AyrXRI4L564ZFfFSZD4n-PUNyVnFN4yBazBqzvryY/image;s=320x240</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-2020-4x4-2-3-ecoboost-303-km-ID6FBW60.html</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2 300 cm3 • 303 KM • 2020 4x4 2.3 Ecoboost 303 KM</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>31 600 km</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Świebodzin (Lubuskie)</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>159 500</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>159 500</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>45484</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6InEzejQxNHpsc2tsejItT1RPTU9UT1BMIn0.79AyrXRI4L564ZFfFSZD4n-PUNyVnFN4yBazBqzvryY/image;s=320x240</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-2020-4x4-2-3-ecoboost-303-km-ID6FBW60.html</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2 300 cm3 • 303 KM • 2020 4x4 2.3 Ecoboost 303 KM</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Świebodzin (Lubuskie)</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>31 600 km</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>159 500</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="57.14285714285715" customWidth="1" min="1" max="1"/>
+    <col width="10.8" customWidth="1" min="2" max="2"/>
+    <col width="14.4" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="18" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="73.2" customWidth="1" min="7" max="7"/>
+    <col width="32.4" customWidth="1" min="8" max="8"/>
+    <col width="32.4" customWidth="1" min="9" max="9"/>
+    <col width="10.8" customWidth="1" min="10" max="10"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>img</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>price</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>thumbnail</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>url</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>location</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>mileage</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>price</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>127 000</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>45481</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6ImEzNDJwZHVyZ3h1YjEtT1RPTU9UT1BMIn0.-LylBsY2COZGGKX0JeribumyVgSZjyVIGTPTZwMTLIE/image;s=320x240</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-ford-explorer-2020-pojemnosc-2-3l-4x4-ID6GuyVP.html</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2 998 cm3 • 350 KM • Ford Explorer 2020 Pojemność 2.3l, 4x4</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>85 324 km</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Boguchwała (Podkarpackie)</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>127 000</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>127 000</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>45482</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6ImEzNDJwZHVyZ3h1YjEtT1RPTU9UT1BMIn0.-LylBsY2COZGGKX0JeribumyVgSZjyVIGTPTZwMTLIE/image;s=320x240</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-ford-explorer-2020-pojemnosc-2-3l-4x4-ID6GuyVP.html</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2 998 cm3 • 350 KM • Ford Explorer 2020 Pojemność 2.3l, 4x4</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>85 324 km</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Boguchwała (Podkarpackie)</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>127 000</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>127 000</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>45484</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6ImEzNDJwZHVyZ3h1YjEtT1RPTU9UT1BMIn0.-LylBsY2COZGGKX0JeribumyVgSZjyVIGTPTZwMTLIE/image;s=320x240</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-ford-explorer-2020-pojemnosc-2-3l-4x4-ID6GuyVP.html</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2 998 cm3 • 350 KM • Ford Explorer 2020 Pojemność 2.3l, 4x4</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Boguchwała (Podkarpackie)</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>85 324 km</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>127 000</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="57.14285714285715" customWidth="1" min="1" max="1"/>
+    <col width="10.8" customWidth="1" min="2" max="2"/>
+    <col width="14.4" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="18" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="79.2" customWidth="1" min="7" max="7"/>
+    <col width="28.8" customWidth="1" min="8" max="8"/>
+    <col width="28.8" customWidth="1" min="9" max="9"/>
+    <col width="10.8" customWidth="1" min="10" max="10"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>img</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>price</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>thumbnail</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>url</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>location</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>mileage</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>price</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>155 000</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>45467</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6IjRxZGNtYjZ6eGdvcDMtT1RPTU9UT1BMIn0.uPu5BXmQ8-pCiGsdIfFyAtc-toUNP1V0616q-mLT1y4/image;s=320x240</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-ford-explorer-xlt-2-3-ecoboost-303km-2020-ID6GsaaA.html</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2 998 cm3 • 350 KM • Ford Explorer XLT 2.3 ecoboost 303KM - 2020</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>72 800 km</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Budzyń (Wielkopolskie)</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>155 000</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>153 500</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>45470</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6IjRxZGNtYjZ6eGdvcDMtT1RPTU9UT1BMIn0.uPu5BXmQ8-pCiGsdIfFyAtc-toUNP1V0616q-mLT1y4/image;s=320x240</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-ford-explorer-xlt-2-3-ecoboost-303km-2020-ID6GsaaA.html</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2 998 cm3 • 350 KM • Ford Explorer XLT 2.3 ecoboost 303KM - 2020</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>72 800 km</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Budzyń (Wielkopolskie)</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>153 500</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>153 500</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>45473</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6IjRxZGNtYjZ6eGdvcDMtT1RPTU9UT1BMIn0.uPu5BXmQ8-pCiGsdIfFyAtc-toUNP1V0616q-mLT1y4/image;s=320x240</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-ford-explorer-xlt-2-3-ecoboost-303km-2020-ID6GsaaA.html</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2 998 cm3 • 350 KM • Ford Explorer XLT 2.3 ecoboost 303KM - 2020</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>72 800 km</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Budzyń (Wielkopolskie)</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>153 500</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>148 500</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>45481</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6IjRxZGNtYjZ6eGdvcDMtT1RPTU9UT1BMIn0.uPu5BXmQ8-pCiGsdIfFyAtc-toUNP1V0616q-mLT1y4/image;s=320x240</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-ford-explorer-xlt-2-3-ecoboost-303km-2020-ID6GsaaA.html</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2 998 cm3 • 350 KM • Ford Explorer XLT 2.3 ecoboost 303KM - 2020</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>72 800 km</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Budzyń (Wielkopolskie)</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>148 500</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>145 000</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>45482</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6IjRxZGNtYjZ6eGdvcDMtT1RPTU9UT1BMIn0.uPu5BXmQ8-pCiGsdIfFyAtc-toUNP1V0616q-mLT1y4/image;s=320x240</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-ford-explorer-xlt-2-3-ecoboost-303km-2020-ID6GsaaA.html</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2 998 cm3 • 350 KM • Ford Explorer XLT 2.3 ecoboost 303KM - 2020</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>72 800 km</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Budzyń (Wielkopolskie)</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>145 000</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>145 000</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>45484</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6IjRxZGNtYjZ6eGdvcDMtT1RPTU9UT1BMIn0.uPu5BXmQ8-pCiGsdIfFyAtc-toUNP1V0616q-mLT1y4/image;s=320x240</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-ford-explorer-xlt-2-3-ecoboost-303km-2020-ID6GsaaA.html</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2 998 cm3 • 350 KM • Ford Explorer XLT 2.3 ecoboost 303KM - 2020</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Budzyń (Wielkopolskie)</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>72 800 km</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>145 000</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="57.14285714285715" customWidth="1" min="1" max="1"/>
+    <col width="9.6" customWidth="1" min="2" max="2"/>
+    <col width="14.4" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="18" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="48" customWidth="1" min="7" max="7"/>
+    <col width="22.8" customWidth="1" min="8" max="8"/>
+    <col width="22.8" customWidth="1" min="9" max="9"/>
+    <col width="9.6" customWidth="1" min="10" max="10"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>img</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>price</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>thumbnail</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>url</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>location</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>mileage</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>price</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>99 900</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>45481</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6InBxYzVvaGlwYXd6dDEtT1RPTU9UT1BMIn0._wdFRBs-bNfdwlZZ1uu61ydXewAvapMs7hQF91CGWmw/image;s=320x240</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-st-fv23-leasing-ID6GzGhZ.html</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2 998 cm3 • 350 KM • ST FV23% Leasing!</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>44 743 km</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Gaj (Małopolskie)</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>99 900</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>99 900</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>45482</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6InBxYzVvaGlwYXd6dDEtT1RPTU9UT1BMIn0._wdFRBs-bNfdwlZZ1uu61ydXewAvapMs7hQF91CGWmw/image;s=320x240</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-st-fv23-leasing-ID6GzGhZ.html</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2 998 cm3 • 350 KM • ST FV23% Leasing!</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>44 743 km</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Gaj (Małopolskie)</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>99 900</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>99 900</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>45484</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6InBxYzVvaGlwYXd6dDEtT1RPTU9UT1BMIn0._wdFRBs-bNfdwlZZ1uu61ydXewAvapMs7hQF91CGWmw/image;s=320x240</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-st-fv23-leasing-ID6GzGhZ.html</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2 998 cm3 • 350 KM • ST FV23% Leasing!</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Gaj (Małopolskie)</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>44 743 km</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>99 900</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <tabColor rgb="00FFA500"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="57.14285714285715" customWidth="1" min="1" max="1"/>
+    <col width="10.8" customWidth="1" min="2" max="2"/>
+    <col width="14.4" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="18" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="92.39999999999999" customWidth="1" min="7" max="7"/>
+    <col width="33.6" customWidth="1" min="8" max="8"/>
+    <col width="13.2" customWidth="1" min="9" max="9"/>
+    <col width="10.8" customWidth="1" min="10" max="10"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>img</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>price</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>thumbnail</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>url</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>location</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>mileage</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>price</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>189 900</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>45484</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6Imt5cWlyaGRqb21vcS1PVE9NT1RPUEwifQ.hIxyhzvzgTGMc9YGvl3ZJScQum6iJcYXbeKoNbWApRk/image;s=644x461</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-2-3-ecoboost-280km-automat-skora-kamera-nawi-alu-fv23-ID6G6Sq9.html</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2 264 cm3 • 280 KM • 2.3 EcoBoost 280KM Automat Skóra Kamera Nawi Alu FV23%</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Toruń (Kujawsko-pomorskie)</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>30 096 km</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>189 900</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <tabColor rgb="0000FF00"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="57.14285714285715" customWidth="1" min="1" max="1"/>
+    <col width="10.8" customWidth="1" min="2" max="2"/>
+    <col width="14.4" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="18" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
     <col width="54" customWidth="1" min="7" max="7"/>
-    <col width="13.2" customWidth="1" min="8" max="8"/>
+    <col width="42" customWidth="1" min="8" max="8"/>
     <col width="42" customWidth="1" min="9" max="9"/>
     <col width="10.8" customWidth="1" min="10" max="10"/>
   </cols>
@@ -4769,6 +5394,52 @@
         </is>
       </c>
       <c r="J6" t="inlineStr">
+        <is>
+          <t>219 000</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>219 000</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>45484</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6IjU2c3ZzdzJybWxqai1PVE9NT1RPUEwifQ.XwEJ4bLBSbTtfyuOIIsumOO6N3k_SDUqHhLwX1EKO2c/image;s=320x240</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-ford-explorer-st-400km-ID6GqSpp.html</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2 956 cm3 • 400 KM • Ford Explorer ST 400KM</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Konstancin-Jeziorna (Mazowieckie)</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>82 000 km</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
         <is>
           <t>219 000</t>
         </is>
@@ -4789,7 +5460,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4804,7 +5475,7 @@
     <col width="54" customWidth="1" min="5" max="5"/>
     <col width="20" customWidth="1" min="6" max="6"/>
     <col width="74.39999999999999" customWidth="1" min="7" max="7"/>
-    <col width="13.2" customWidth="1" min="8" max="8"/>
+    <col width="26.4" customWidth="1" min="8" max="8"/>
     <col width="26.4" customWidth="1" min="9" max="9"/>
     <col width="9.6" customWidth="1" min="10" max="10"/>
   </cols>
@@ -5086,6 +5757,52 @@
         </is>
       </c>
       <c r="J6" t="inlineStr">
+        <is>
+          <t>72 950</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>72 950</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>45484</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6IjRrbnljZWhyYzQ5bjMtT1RPTU9UT1BMIn0.v65qq_pSzj0-VFJnVCNPwhTYP7eYGKvpR1DnE3j9i9U/image;s=320x240</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Ford Explorer 3.0 EcoBoost PHEV 4WD ST-Line</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-niski-przebieg-piekny-srodek-awd-400-hp-ID6GvEeE.html</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2 998 cm3 • 350 KM • Niski Przebieg,Piękny Środek AWD 400 hp</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Węgrów (Mazowieckie)</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>65 597 km</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
         <is>
           <t>72 950</t>
         </is>
@@ -5106,7 +5823,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5121,7 +5838,7 @@
     <col width="18" customWidth="1" min="5" max="5"/>
     <col width="20" customWidth="1" min="6" max="6"/>
     <col width="67.2" customWidth="1" min="7" max="7"/>
-    <col width="13.2" customWidth="1" min="8" max="8"/>
+    <col width="28.8" customWidth="1" min="8" max="8"/>
     <col width="28.8" customWidth="1" min="9" max="9"/>
     <col width="10.8" customWidth="1" min="10" max="10"/>
   </cols>
@@ -5403,6 +6120,52 @@
         </is>
       </c>
       <c r="J6" t="inlineStr">
+        <is>
+          <t>129 000</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>129 000</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>45484</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6InRzcW5vdWs0bGRyZzMtT1RPTU9UT1BMIn0.qzrm202gefFVMn_sJWhSESsycd64Jb3ipUa1XqLFa1k/image;s=320x240</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-7-miejsc-suv-w-doskonalym-stanie-ID6Gnm35.html</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2 998 cm3 • 350 KM • 7 miejsc SUV w doskonałym stanie!</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Łomianki (Mazowieckie)</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>62 000 km</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
         <is>
           <t>129 000</t>
         </is>
@@ -5649,7 +6412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5664,7 +6427,7 @@
     <col width="18" customWidth="1" min="5" max="5"/>
     <col width="20" customWidth="1" min="6" max="6"/>
     <col width="84" customWidth="1" min="7" max="7"/>
-    <col width="13.2" customWidth="1" min="8" max="8"/>
+    <col width="31.2" customWidth="1" min="8" max="8"/>
     <col width="31.2" customWidth="1" min="9" max="9"/>
     <col width="10.8" customWidth="1" min="10" max="10"/>
   </cols>
@@ -5948,6 +6711,52 @@
       <c r="J6" t="inlineStr">
         <is>
           <t>134 000</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>139 000</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>45484</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6IjdkcXQ2cXBwZzlkei1PVE9NT1RPUEwifQ.mEIE7RUBPA8UVuzk1savM5zAo7JrvTeJUDX7ZMJ3gN8/image;s=320x240</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-maly-przebieg-jak-nowy-piekne-duze-auto-7-osob-ID6GwFMg.html</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2 261 cm3 • 299 KM • Maly przebieg jak nowy, piekne duze auto 7 osob</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Swarzędz (Wielkopolskie)</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>32 000 km</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>139 000</t>
         </is>
       </c>
     </row>
@@ -5966,7 +6775,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5981,7 +6790,7 @@
     <col width="18" customWidth="1" min="5" max="5"/>
     <col width="20" customWidth="1" min="6" max="6"/>
     <col width="80.39999999999999" customWidth="1" min="7" max="7"/>
-    <col width="12" customWidth="1" min="8" max="8"/>
+    <col width="28.8" customWidth="1" min="8" max="8"/>
     <col width="28.8" customWidth="1" min="9" max="9"/>
     <col width="10.8" customWidth="1" min="10" max="10"/>
   </cols>
@@ -6263,6 +7072,52 @@
         </is>
       </c>
       <c r="J6" t="inlineStr">
+        <is>
+          <t>156 900</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>156 900</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>45484</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://ireland.apollo.olxcdn.com/v1/files/eyJmbiI6IjAwNWc5a2E4NnVvMy1PVE9NT1RPUEwifQ.ujN1VW_P3vrWzMvsEcdIJ3EZSDNtoUTC2etsy6VNs34/image;s=320x240</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Ford Explorer</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>https://www.otomoto.pl/osobowe/oferta/ford-explorer-2-3t-300ps-zobacz-jak-nowy-ostrowek1-ID6FFCfy.html</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2 261 cm3 • 300 KM • 2.3T 300Ps _ Zobacz _ Jak _ Nowy _ OSTROWEK1</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Zduńska Wola (Łódzkie)</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>5 700 km</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
         <is>
           <t>156 900</t>
         </is>
